--- a/unified_scraper/results.xlsx
+++ b/unified_scraper/results.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,1477 +436,6798 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>party</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>case_no</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>party</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>pdf_link</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>txt_link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FAO(OS)-75/20252025:DHC:6905-DB</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45887</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BIMLA DEVI AND ORS.  Vs PAWAN KUMAR AND ORS.</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SURENDRA MOHAN TARUN (DECEASED) THR LR SURAJ SAXENAVsSARABJIT SINGH</t>
+          <t>FAO-1107-2010</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025FAOOS752025_121834.pdf</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025FAOOS752025_121835.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTBoNlQxVTNNek5hYTFOcU5IRkJOVFJaUjFwbVIydGlOWGhUYlhKRVUzcExSMlIzTVZFeWFqUktWM1Z0U1RSSFpuTTVRVVpWV21SeGIwVnFWRVJRSzAwPQ==']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LPA-633/20192025:DHC:6901-DB</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45887</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UNITED INDIA INSURANCE CO. LTD., Vs BALWINDER KAUR AND ORS</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M/S NIMITAYA PROPERTIES LTD &amp; ANRVsINDIAN OIL CORPORATION LTD &amp; ORS</t>
+          <t>FAO-1146-1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025LPA6332019_123853.pdf</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025LPA6332019_123853.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTFVNVNuTXhZMWxMUlZsU1lUQm5ZbTFqWTI5VU4wZ3hjM0ZpUlVoQ1NIUk9OWGxXY25wR1lWTTJiMUpNZFZJNWVETkVkRmxLWkZGeVRIVXdOVVZqUVc0PQ==']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FAO(OS)-86/20252025:DHC:6902-DB</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45887</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MANJU AND OTHERS Vs BABU LAL AND OTHERS</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RAJESH RAJPALVsRAKESH RAJPAL &amp; ORS.</t>
+          <t>FAO-1221-2020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025FAOOS862025_122823.pdf</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025FAOOS862025_122823.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTJsRlp6Sk9hVkYwTTBnM2NIWnFaakJMYUN0bFZHeEdiVWhrUjFOM2N6TTBWMFp4WVhaa1FXRTRVRVI2THpCWVNqQlNWVFZMU1RoVFVWaDNUREJMUzBjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RFA(OS)-61/20242025:DHC:6894-DB</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45887</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OMI @ OM PARKASH AND ORS Vs KALU @ DARSHAN LAL AND ORS</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUMAN SINGH VIRK &amp; ANR.VsDEEPIKA PRASHAR &amp; ANR.</t>
+          <t>FAO-2585-2016</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025RFAOS612024_122439.pdf</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75018082025RFAOS612024_122439.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWXpOMmRXdFFkREJ4TTJSRGVESnBhV1I0VVdSU2IwZHZSWGxxZGtsUVV6SmpkUzlqS3pCV2FqSlpZbmhKVFdKSUwyTnRTMFpaYVV0RlYxcHJSbWd3TDJjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CRL.A.-177/20232025:DHC:6884</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JAMUNA DEVI AND ORS Vs RIPPEN AHUJA AN DORS</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RAVINDER @ KALUVsTHE STATE NCT OF DELHI</t>
+          <t>FAO-3499-2002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59514082025CRLA1772023_165832.pdf</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59514082025CRLA1772023_165832.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWXpjd1VYQlhTVUZqUkVkeFZWTTVlbGxJUzFsR1IxWkZNM1UwV1doQlJuWllNbWhoWW10Q1l6SXpaV2Q1U3l0dE9EVkZZakpsVkdvck5GSk9TRWhaVkZNPQ==']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS(COMM)-539/20232025:DHC:6856</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HEM LATA AND ORS. Vs IQBAL AND ORS.</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RECKITT BENCKISER (INDIA)PRIVATE LIMITEDVsSAUSS HOME PRODUCTS PRIVATE LIMITED</t>
+          <t>FAO-4156-2010</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/ABL14082025SC5392023_150126.pdf</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/ABL14082025SC5392023_150126.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTBadlRFMUpVa3c1Y0c1S1RGRnNRbWxCYzNsc1dERTNXV3A0TDNGek5YTkJkRTVzT1d4RU9HeEphVzA1T1U5SWVqVlVhVFpWZVVwcmVXWldXWFZuYUhjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FAO(OS)-39/20252025:DHC:6845-DB</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>REWAT DAAN &amp; ANR Vs SATPAL &amp; ORS</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SHANTANU PRAKASHVsDORIS CHUG GIM LIAN &amp; ORS.</t>
+          <t>FAO-9533-2014</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/68014082025FAOOS392025_171653.pdf</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/68014082025FAOOS392025_171653.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTFKeE9VZHVUV3RKZUdaUk0zUnJiSHBLVjNaS1pHbzViM0Y0ZVhoTWFrRllhV3RtUkM4MU5UaEZLMjl1Ym1Zd1NUWklkVVpqYTNCWFMwdHNhVFptTVd3PQ==']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CO.APP.-26/20232025:DHC:6848-DB</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>THE CHIEF ENGINEER AND ANR Vs M/S AGGARWAL SONS AND ANR</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IDBI BANK LTDVsP D  GUPTA  AND  COMPANY</t>
+          <t>FAO-4849-2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/68014082025COA262023_172148.pdf</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/68014082025COA262023_172148.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTBWR1VsTklVRE4wTHpGMlkzQm5Oa1JxZHpaNmFtTjBZbEp0WlRWaU1tMUhkMmw0YlUxU1ZVOWtlVE13ZVZkblZIZExRa1ZUVFRGUVZXeGpZMkZJVFhvPQ==']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CRL.A.-946/20232025:DHC:6913</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INDERA DEVI AND ANOTHER Vs BAHADUR SINGH AND OTHERS</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PAWAN KUMARVsSTATE NCT OF DELHI</t>
+          <t>FAO-5510-2022</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/MKO14082025CRLA9462023_175636.pdf</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/MKO14082025CRLA9462023_175636.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTNSc2NtZERUVVJGYkRWMlkyVlNTbFZOY1doWGRHcENlVVJMUm5Kc1R5dFhNVmxFY0hKRUwxaFZjMkUyTm01R1ZYcDNjMUp1WjB4VlYxaFlkWEJDU0hBPQ==']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-2302/20252025:DHC:6871</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASHA DEVI AND ANR Vs HARMINDER PAL AND ORS</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUNIL KUMARVsSTATE NCT OF DELHI</t>
+          <t>FAO-5525-2022</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025BA23022025_181157.pdf</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025BA23022025_181157.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWXpoUVVGWjVTR1l5ZFZBeFdGVmpNbmhLZFZVMlFub3pSR0p3TkVwcVVFeFVUMVZZVHpkT2QzSXdXV2Q0VUdaclptVXZURlJGUkV4dWVtUllTRFo0Y0VzPQ==']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CRL.M.C.-5584/20252025:DHC:6872</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>JAGDISH Vs VED SINGH ALIAS BEDU AND ORS</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AMIT KUMAR AND OTHERSVsSTATE OF NCT OF DELHI AND ANOTHER</t>
+          <t>FAO-6139-2017</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM55842025_181742.pdf</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM55842025_181742.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibXhQVjFJMlVGWnVlVVEzUzBwRGVuZDNWVXBrWTFaWGMwczFkRkJGUkdWdVdXVk1VbEJzWm5FMFJuRkdiek5GU2tkT2VXbE1RM0p4U0dkTlQzcHhZamQ1UjJoeE5tRlljRXhLWWxoek5HdEJkRVJqV0dFPQ==']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CRL.M.C.-4471/20252025:DHC:6908</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P.S.E. B &amp; ANOTHER  Vs LAKHBIR SINGH</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KAPTAN @ KAPTAN SINGH @ RAJUVsSTATEOF NCT OF DELHI AND ANR</t>
+          <t>RSA-1536-1997</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM44712025_181814.pdf</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM44712025_181814.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliamgzYVRoekszcEJTR0ppTmtGc2FtVkpVREIxYWs1Mk1EbElXR2hwZDJobEwyWnhXbWQ1UzJKYU9GaHdkWEJQVDJSQ1owOTVXaTgwWjNKdFFuVm9iMmx3TUZaVVJFOVJXbWhuZDJGcGJ6RkNaa0ZYVlVjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CRL.M.C.-5605/20252025:DHC:6899</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KULWANT RAI AND ORS. Vs PARGAT SINGH AND ORS.</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MOHIT KUMAR ALIAS MOHIT GOELLVsSHARP CORP LTD</t>
+          <t>RSA-636-1997</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM56052025_181852.pdf</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM56052025_181852.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliamgzYVRoekszcEJTR0ppTmtGc2FtVkpVREIxYWxwUVpGbGpkRFZtTmtSSVdHMHdlbFZ6WVhVMlVFZ3JibTlUS3k5TGRTdFpORWhKVG1wNmFtUXpXbVJuYW1RcllUWkplWEJ6TkZWaU1rZG9hWEpSWldnPQ==']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CRL.M.C.-3127/20252025:DHC:6907</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DIWAN SINGH AND OTHERS Vs AMANPREET KAUR AND OTHERS</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SANJAY KUMAR &amp; ORS.VsSTATE ( GOVT OF NCT DELHI) AND ANR.</t>
+          <t>RSA-5986-2014</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM31272025_181921.pdf</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM31272025_181921.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliamgzYVRoekszcEJTR0ppTmtGc2FtVkpVREIxYW5CbE5uUmpjekJKTmpWRFJUWlZNREE1WW5OWlZVNUhkVUV2Ym5Jd05XRXdTMjV0VXprMmRUaE5UbFp4UjFKaVJWbzJSR1J1Tm01aWFXSm1SR2xXTmpZPQ==']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-3086/20252025:DHC:6867</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M/S SATYUG DARSHAN TRUST (REGD.) Vs TARA CHAND JAIN AND ANOTHER</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHUBHAM KUMARVsSTATE OF NCT OF DELHI</t>
+          <t>RSA-2791-2001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025BA30862025_181951.pdf</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025BA30862025_181951.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliamgzYVRoekszcEJTR0ppTmtGc2FtVkpVREIxYW1odlpFTldXblZYVTNsQ2VUTlZjM2t3VkdkeGFVcE1WU3RZZEZCVlIxUmlNbTVOYUZJME5HeExhbVZGUWtwTVRYVjNNWFF3UlVKVU1raFFlbUpuYnpRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CRL.M.C.-4370/20252025:DHC:6906</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MEENA RANI Vs SAT PRIYA CHAWLA &amp; ANR</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUBHASH &amp; ORS.VsSTATE OF NCT OF DELHI  &amp; ANR.</t>
+          <t>CR-1088-2015</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM43702025_182023.pdf</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM43702025_182023.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlVkSVpYRjFWR1V6TmxoSU1VTTBaVUZIUjNWSU9XZDJXRXNyTUhJeGJ6YzFhbnB3TVM5WlpXcHNlbkJwWjJRME9XUmlMMGxIVFZkTE9FUXJkMmhIUVhRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CRL.M.C.-5618/20252025:DHC:6900</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BHAGAT SINGH Vs SUB DIVISIONAL OFFICER AND ANOTHER</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUKHJIT SINGH  &amp; ORS.VsTHE STATE OF DELHI &amp; ANR.</t>
+          <t>CR-7148-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM56182025_182051.pdf</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60814082025CRLMM56182025_182051.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlZoMVFtcHZWMVZQVkVsTVRuVnZibVZOWXl0R00wRTFUSEJXVjBkMWFXSm5jVUZrTTJaQlNqRkxTVkJIVFRGNFJtcEZjelZuVFhCM05EWnpSMDh2ZENzPQ==']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CRL.M.C.-1522/20252025:DHC:6880</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RAMBIR Vs MACHLA DEVI AND ORS</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHIRAG SHARMA &amp; ORS.VsSTATE GOVT. OF NCT OF DELHI AND ANR.</t>
+          <t>CR-1423-2020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/61714082025CRLMM15222025_182137.pdf</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/61714082025CRLMM15222025_182137.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlVkUWFUQjNlalZZUVVKamNGVkxObEpQYlZSU2F6QlZWbU5HVmxsT05YTlBabEJMZDNaMlJXaE5XVEJGTldaS2FHb3hlSEJETDBSS05Va3dZMEp1ZGk4PQ==']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-2283/20252025:DHC:6874</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RACHPAL SINGH AND ORS Vs RAJINDER PARSAD</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RAVINDER SONIVsSTATE (NCT OF DELHI)  &amp; ANR.</t>
+          <t>CR-2595-2016</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA22832025_184913.pdf</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA22832025_184913.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVldGUWVuRmtXWEoxVTBkNVJISTJOaTlzVkVFeVZuQldPRzVQV2tOQmVqRTBNWGN4UkRkV2JsUlFTMFJoTVN0UlozcE1NRmRaYTNobmREUlNkbHBEYUZZPQ==']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-3386/20242025:DHC:6875</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KULDEEP MALIK Vs SAROJ DEVI AND OTHERS</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHHOTE LALVsSTATE OF NCT OF DELHI</t>
+          <t>CR-3183-2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA33862024_185026.pdf</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA33862024_185026.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlVSaVZqWlRXRnBhT1ZoVFQweE1WRGMzY1ZSb2NVdHRXRlJRYjJkRVoxWm1jbmxEZHpOWmNWUXZTRkV5V0V0R04xbDNRVXhaVUVVM09HdFNRak5QT0dZPQ==']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-3623/20242025:DHC:6911</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(O&amp;M) SAJAN SINGH ROOPRA ETC. Vs RAJAN NARANG</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRAVESH  KUMARVsSTATE OF NCT OF DELHI</t>
+          <t>CR-4941-2011</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA36232024_185203.pdf</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA36232024_185203.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlU1aVZDdFBWRVJXV0c1NmRWTkxiVE5QT1N0UkszQk9NVnB3YXpWamNrRnFVMEZFUlU1amFuWkhORzlJYmpoRE5YTktWMWxXZWtSV2IwMVRTbE5JZDNBPQ==']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CM(M)-1525/20252025:DHC:6921</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PARAMDEEP SINGH SAHOTA Vs SUKHDEO KAUR HAYER</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NIRMAL GUPTAVsRAM NIWAS GUPTA</t>
+          <t>CR-5052-2025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60914082025CMM15252025_185341.pdf</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60914082025CMM15252025_185341.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlVwSE4wVlBkbXRzY0c0MlJVMHJRV1JNSzBZd2FDOXNZV3hDUkhnelZ6QlNTSGRGWlRGbFdsTktjMWhzVXpSU1JFRmFZV1U1VG10RE5sRTROekZ6Y3pJPQ==']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-180/20252025:DHC:6876</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LALIT KUMAR GUPTA Vs MITTAL BATTERY INDUSTRY AND ANOTHER</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHAHIDAVsTHE STATE N.C.T. OF DELHI</t>
+          <t>CR-5379-2025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA1802025_185432.pdf</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA1802025_185432.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlcxVlJuWXlZMjlqVXpGMlpYZENlRkZZVDNZemFrTlhOelprTVhWUFUwbDRSVWswUWs1RFJUZFpUMHhrVHpBNGRuWm1XbE5PUjJOMGRrWm9hWEZ0YW1VPQ==']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W.P.(C)-813/20252025:DHC:6885-DB</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HARNEK SINGH AND ANOTHER Vs DAVINDER KAUR AND OTHERS</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TPF ENGINEERING PVT LTD &amp; ANR.VsNATIONAL HIGHWAYS AUTHORITY OF INDIA &amp; ANR.</t>
+          <t>CR-5399-2025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/68314082025CW8132025_193135.pdf</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/68314082025CW8132025_193135.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlU5b1JEVXJVVkpTZDBwWWJuUk1SbTVRYjFWTlJWVkxlR0YzZEdJNU1VZDRkelZUUVdWb1EwNXpNMk5VUVdaWlYyZFZhMkpqUWxSVGJIUjFRa2x2ZVVzPQ==']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-4183/20242025:DHC:6877</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SUBHASH MAHAJAN Vs RAKESH KUMAR</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RAKESH YADAVVsSTATE OF NCT OF DELHI</t>
+          <t>CR-5413-2025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA41832024_202012.pdf</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/67914082025BA41832024_202012.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlRCQlQwTlBkRkZzY2sxak1DdElaMmxCVkVGUlptUklLM0J0VmtzNUwyNXlaVGt6YW14QlRrVkdZVWxGTVVkeGVFUXlSbmwyYzI1NmFqWklMMXBSWjFrPQ==']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>W.P.(C)-6734/20232025:DHC:6878</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KAMALJEET SINGH  Vs DAVINDER KAUR</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SRSC INFRA PVT. LTD.VsUNION OF INDIA</t>
+          <t>CR-5416-2025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/58714082025CW67342023_193649.pdf</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/58714082025CW67342023_193649.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlhaclEwOW1ZMmhoVW1KdlZYRkdObGREZEZGUFZWVTFlUzlvU1VoTlQzVTNSM2R4Y2xNMlpVUjBLMHd3TWtVNGVHZHdTV3BUVkhVck9DOTZaM0pYYWtNPQ==']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CRL.A.-969/20242025:DHC:6967</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>45883</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NAFE SINGH Vs MUKESH KUMAR</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUMITVsSTATE OF NCT OF DELHI</t>
+          <t>CR-5420-2025</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/MKO14082025CRLA9692024_150632.pdf</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/MKO14082025CRLA9692024_150632.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlZSTk5qRk1WalYxTDBaUVpISXdkMkZqVFV4TmRpOWpXRmRDWm5Cek4wZzJSVVp1U0RNMWQzTkhkVEVyWlc5YWIwZEphRTlSTmswNU9GUTNUVTFZVDJRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>O.M.P.-717/20102025:DHC:6836</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>M/S OSWAL WOOLEN MILLS LTD. Vs UNION OF INDIA AND ORS</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>INDRAPRASTHA POWER GENERATION CO LTDVsE.M. SERVICES(I) PVT LTD</t>
+          <t>CR-5425-2025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/JSM13082025OMP7172010_151753.pdf</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/JSM13082025OMP7172010_151753.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlM5TFMyTk9iazUwZDJsQk1DdFplRWg0VjJJM1ExcFVZVVYzUTFwR1UzTlJWRTFOY1ROcFRWSXdWVzVVZWxaRVowTlhOREl5U25sb1RHTkVSVTFVWVRnPQ==']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>W.P.(C)-10624/20202025:DHC:6812-DB</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KEWAL SINGH THROUGH SPA Vs SUKHWINDER KAUR AND ANOTHER</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SHEELENDRA KUMARVsUNION OF INDIA THROUGH SECRETARY &amp; ANR.</t>
+          <t>CR-5455-2025</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW106242020_110925.pdf</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW106242020_110925.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlRSNlRtZDRSaXRvY2tkM1IwWnJhRk51Y20xeE1sUTRSVGxMTTNCRVpubFdhelJxUmxReGVESm9SVU5KTlUwNVFYZzFUekEwU1VkMmR5dFRURGRwTjFRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-1394/20252025:DHC:6827</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(O&amp;M) ARUN KUMAR CHAURASIA Vs ANIL KUMAR AND ORS</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NARENDERVsSTATE NCT OF DELHI</t>
+          <t>CR-6535-2012</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60813082025BA13942025_144153.pdf</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60813082025BA13942025_144153.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlVsT1FWZG9ZbXhJV1VWdmFpdHFjell4Y0VGWFRYb3hlbk4xVVdSR2NUZENaMnhDY1ZSRGN6SkVla00wVG0xcFkzaFBkRXhMT1ZRemVsaEZjWGxTZFRFPQ==']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>W.P.(C)-4054/20252025:DHC:6797-DB</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JANGPAL SINGH Vs M/S BEAR SAAB COLD STORAGE</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>M/S. CEIGALL INDIA LIMITEDVsNATIONAL HIGHWAY AUTHORITY OF INDIA &amp; ANR.</t>
+          <t>CR-6615-2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59413082025CW40542025_113113.pdf</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59413082025CW40542025_113113.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlRCSU4zcFNlWFJ3ZFhWQ00ycEZZWGxuYTBrelV6RkxTekZ6VW1veWNFMDJVRVpsYTB4MWVHOHZXRnBMTlZadFZEbG1MMWhZTW5RemEyZDZaRGxCZG5nPQ==']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>W.P.(C)-5830/20242025:DHC:6811-DB</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SATYA NARAYAN ALIAS SATYANARAIN  AND ANR Vs RAJENDER KUMAR AND ORS</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AADYA ANTYAVsHIGH COURT OF DELHI THROUGH REGISTRAR GENERAL</t>
+          <t>CR-1180-2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW58302024_111006.pdf</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW58302024_111006.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRmhUVFZkcWIyMVdOVkU0UWtWT1EzTXlNMU5tVlV4amNGVlJkR05wZUc1QlVXUkhibXhUU25BcmNWUjNNMnBpUjA1a1JGUlNRM05EZFhZNVdGcEZUMUkzYVd0WlEwb3dielpRZDJKT1EyMVJLMnh1YzFFPQ==']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CRL.M.C.-4785/20172025:DHC:6826</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AMNINDER SINGH MANN Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GAINDA LALVsTHE STATE GOVT OF NCT OF DELHI  &amp; ORS</t>
+          <t>CRA-S-2100-2025</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/NBK13082025CRLMM47852017_170932.pdf</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/NBK13082025CRLMM47852017_170932.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjNsVGRVVmhURE16YWxKV1ZIcE1jbE5TVkZCTk0ycEdUVzVGVm1GdlVYVjZaR0ZZVkZoNGVFWlhXVGxKTVRCU2QxQkVZakI0Tm5sMmQwZDNSRVp1WVZZPQ==']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-864/20252025:DHC:6820</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HARISH CHANDER Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PETER NWALUEVsSTATE OF NCT OF DELHI</t>
+          <t>CRA-S-2483-2025</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60813082025BA8642025_174758.pdf</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60813082025BA8642025_174758.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjNsSFkyTnNkbWxpTWk5R05IcHBRblJLYjNwVGJIVklTVTlHVm5OT01UbGFUa0ZZTkd0R01XbGpia05rV2xkQ1ZGTTRkR2RIU20xVmVVTldhRWRXSzJjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>W.P.(CRL)-3779/20242025:DHC:6843</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SUBASH CHAND Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SARTAJVsSTATE (NCT OF DELHI)</t>
+          <t>CRA-S-2245-2025</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60813082025CRLW37792024_174936.pdf</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60813082025CRLW37792024_174936.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTnpNMGNVcFhhM1UwZVdzME1reEdUblZ3TmtGUWQxZDBhM0JFY2k5SlRFeDJRamRrT1VoUVlrNU1WeTlqYkdWc2NUWkNiREEyUldveVZsQklTMjVKTkU0PQ==']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CRL.A.-280/20212025:DHC:6852</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>M/S. CHEMINOVA INDIA LIMITED AND ORS Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NAUSHAD @ BOMBAYVsSTATE GOVT. OF NCT OF DELHI</t>
+          <t>CRM-M-11903-2018</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/MKO13082025CRLA2802021_204547.pdf</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/MKO13082025CRLA2802021_204547.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxjNE4zQTFSRGRQWjBwTlZHNVNhbGxIUjB0eVlVVkNZazVpYkV4MWFEWnJaVTVzY3poek9GSklhbFJhVUU5bk4wOUZSRVJ1V21KeFl6ZFpSakpGUlRrPQ==']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>W.P.(C)-12173/20252025:DHC:6851</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>JAGDEEP SINGH Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SUSHIL KUMAR CHAUHANVsMUNICIPAL CORPORATION OF DELHI</t>
+          <t>CRM-M-12104-2025</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59213082025CW121732025_092419.pdf</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59213082025CW121732025_092419.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWt0UmIyVlphSEYyUm5ob01FbHhRVFJzTkhocWREQTJjVlY0VGpSNk5IRnBkWHBsY21wMmRHRk5kbkoyYm5SeFQyUmpZMFJsTlhsS1lYUTRZV1Y1U1ZRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CRL.M.C.-5549/20252025:DHC:6821</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SANJEEV KUMAR @ HAPPY Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ANIL KUUMAR SADANA  &amp; ORS.VsTHE STATE OF DELHI NCT  &amp; ANR.</t>
+          <t>CRM-M-12697-2025</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/61713082025CRLMM55492025_112123.pdf</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/61713082025CRLMM55492025_112123.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5nNWJrTjNRVXBMVVN0SmJISlJVWGRwWTFkTk9YQkxRa2MwVEZaNmMydDNORTlxU0RkME9HSjBUVFZXWml0SWRGUnBhRzh4WTJwMUwycGtXalpGVTBjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>W.P.(CRL)-2513/20252025:DHC:6837</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NARINDER KAUR AND OTHERS Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BHARAT KHANNA  &amp; ORS.VsSTATE OF DELHI &amp; ANR.</t>
+          <t>CRM-M-13015-2025</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/61713082025CRLW25132025_112640.pdf</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/61713082025CRLW25132025_112640.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1WeGFYVlFiamRDWTJSSlNqZHdUbHBFTDA1ME5FeGlURzFaUWxwc2RUUjNkRFUyV2pZclJ6ZzROR1ZyVjBST1pYWk5UV3MzYTJWV1JtTlBTeXQ2ZUZjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAT.APP.(F.C.)-278/20252025:DHC:6783-DB</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NARINDER KUMAR Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HITESH MEHTAVsPRIYA MEHTA</t>
+          <t>CRM-M-15012-2025</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75013082025MATFC2782025_130301.pdf</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75013082025MATFC2782025_130301.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpJeEszbFRkQ3RUUjI0ek1FNVdiR0pJUTNONU4yNVplVlJQVVZNMllsUmlSa0ZLY2xNNFQwTkJSekYxUlZsVmNGRTFWRmhYZEVNelJqWmFiVUV3ZDBZPQ==']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>W.P.(C)-4523/20232025:DHC:6858</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RANJOT SINGH ALIAS YODHA Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AJAY KUMAR GUPTAVsJAWAHARLAL NEHRU UNIVERSITY</t>
+          <t>CRM-M-15638-2025</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/PRJ13082025CW45232023_144456.pdf</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/PRJ13082025CW45232023_144456.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5oMU0xVlNNRVZETmtKUFNuQjRURFZtV0RVelVrOURkbTkyV25KNE5ESkRNazlMTVZWQlVXazJjR1F6UmxwUlpVVmxTbVZRV1ZKNmJYQmhhR1ZCT1NzPQ==']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CM(M)-1207/20252025:DHC:6893</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SAYAAM ALIAS SANJAM MATHI Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SANTOSH SINGHVsSATVINDER KAUR</t>
+          <t>CRM-M-16963-2025</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM12072025_154417.pdf</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM12072025_154417.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtRNWRVZHBaMHN3TlhsMVFYcDRTeTlsYkdkM2VsQlFiSFEzYWtsdE0wRlFjV2czTTNsaFlrMVplbVpRVlhSRVdGZDFWelpwYzIxVldGSkdaellyV1djPQ==']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CM(M)-1510/20252025:DHC:6895</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AJAY SANDHU Vs STATE OF HARYANA</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VENU UPPALVsBALVINDER UPPAL</t>
+          <t>CRM-M-17408-2025</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM15102025_154558.pdf</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM15102025_154558.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW0xSUt6aDNMMk5RUjNWVFNIWjVlbGhaTURGemFEWnliVU52VEd0NU1XcGFiVWgyZEZWdlRtY3ZjMnN5UlZwdGNqQllha0l3YWtaclJGTXJUR3d6TkVFPQ==']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CM(M)-1511/20252025:DHC:6897</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SANDEEP SINGH Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SH SANJAY GARGVsM/S PLAZA ELECTRICAL PRODUCTS PVT LTD</t>
+          <t>CRM-M-17479-2025</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM15112025_154823.pdf</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM15112025_154823.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtaVWFYRklUVFJFTkdwYU0zVTJSMFpCVEhWQ1MzUktRVEpTT1RONVNsaElPVE42YzBWME5HcDZXbGRIVWpGaWNHUkVjVEpvVFVSRmVHeHZLMVF4VmswPQ==']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CM(M)-1515/20252025:DHC:6889</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JUGRAJ SINGH Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRANAV ANSAL &amp; ANR.VsMAHINDER SHARMA &amp; ANR.</t>
+          <t>CRM-M-18915-2025</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM15152025_155123.pdf</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM15152025_155123.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW05NVZYTjBNVnB4T0UxbU9WSk5jVlZNUVZoek5XTkRTMjlMSzFSM0wxUlNVV0ZKUWpOR1pVWndVRkZyY1N0Sk5FSjFjbWRZZGxacVdXeEhhRlF5UkhrPQ==']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CM(M)-1721/20232025:DHC:6892</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DINKAR KALIA Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>M/S JAI DURGA INDUSTRIESVsM/S PHOOL CHAND BHAGAT SINGH</t>
+          <t>CRM-M-20519-2025</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM17212023_155233.pdf</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/60913082025CMM17212023_155233.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1sVFYxWTBjMnRsZGxSWE9USjVjVkJ2YjA5MVkzY3hTV0ZqYzFCd1RIQnBTRTV5YWs1SlNIVklNRFpzWmpoMVVWcFVXbFJtUWxKRWFVSTRVbTVDVGtRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>W.P.(C)-3492/20252025:DHC:6866-DB</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GULSHAN Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AKASH BANSAL (PROPRIETOR M/S SHRI PREM JI TRADERS)VsSUPERINTENDENT RANGE - 109 CENTRAL GOODS AND SERVICES TAX DEPARTMENT, DELHI WEST, DIVISION- ROHINI</t>
+          <t>CRM-M-20564-2025</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/PMS13082025CW34922025_162014.pdf</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/PMS13082025CW34922025_162014.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5CbWMxRkhaMEpGTlVzM1VIcG1WR2d4Vld4NWFFWllTMGhFTms5R2RsSm9ZbHBHYjJSNVQyMVljMFY2U0RBNU9YUllUMHhTWjFscFVrNW9jRzF2TmpBPQ==']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>W.P.(C)-4786/20222025:DHC:6863-DB</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RAKESH Vs STATE OF HARYANA</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SHIVANANDVsUNION OF INDIA AND ORS</t>
+          <t>CRM-M-21458-2025</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW47862022_174550.pdf</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW47862022_174550.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1ST1ZrTTJlR1JPU0ZOVGNFUXdjekUxWVhFMlRWWTNZbEJDUlVKQmVVVjZhMlEzZEN0WGNqZzBORmQzWldvNWRGQnBTV3RLTlRKTGFISlZUMnhOVWxRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>W.P.(C)-7156/20252025:DHC:6864-DB</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SAMRAT Vs STATE OF HARYANA</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LT COL ANIL KUMAR AHIRWARVsUNION OF INDIA THROUGH SECRETARY MINISTRY OF DEFENCE (DMA) &amp; ORS.</t>
+          <t>CRM-M-22332-2025</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW71562025_182509.pdf</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW71562025_182509.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1WNFluUktabVJvV200NGJHaENVWEpuYzBsMVF5ODVlbTk1T0dWME9YVXlObEJpY2tncll6RjRSVGxhT1cxeGRqZzFMMkpuT0VSUFZpOWpReTlhVEVFPQ==']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>W.P.(C)-8132/20232025:DHC:6860-DB</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AMRITPAL SINGH Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EX CPL RAM KUNWARVsUNION OF INDIA &amp; ORS.</t>
+          <t>CRM-M-22856-2025</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW81322023_182537.pdf</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW81322023_182538.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1ob1ltNHJkemd5U1hWTVQxWk1SUzlMZW1Vek1UUkxiV2syVlVGTlMyWlZPVkpzUlZkT2VTc3ZWRGRRUTBnNEt6RnJZMnhDWlZVeFNsQXZiM1o1TVhjPQ==']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>W.P.(C)-12185/20252025:DHC:6861-DB</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HARPREET SINGH  Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EX-NAIK AJAY KUMARVsUNION OF INDIA  &amp; ORS.</t>
+          <t>CRM-M-23056-2025</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW121852025_182612.pdf</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025CW121852025_182612.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1GVE4yaFRLMjl1ZW5wMlpWaHFOVEZyYW5Cc05rMXJRVVpKY2xaeU9FOW9kR2RVU1ZkcFF6QkJjbHBpY1VGUmRFTnFaVXhNVW14S055OWpWWEpuVTJvPQ==']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FAO(OS) (COMM)-126/20252025:DHC:6859-DB</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BALWINDER SINGH Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TRANSSNET MUSIC LIMITEDVsUNISYS INFOSOLUTIONS PVT. LTD &amp; ORS.</t>
+          <t>CRM-M-23128-2025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025FAC1262025_182649.pdf</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/CHS13082025FAC1262025_182649.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5aSmNEZENlbGxJYUhZdmRGZHhhMEZzVDNkVVpFeHlVbE5UVURkaU5GVlpSM3BoYzBsT01XdFBhVEJsUzNWQ1ltdFhORlZDWkdWRlUyWlliRUZ4ZEdZPQ==']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>W.P.(C)-12198/20252025:DHC:6934</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GURMEET SINGH ALIAS MEETA Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M/S RAM NIWAS GOELVsMUNICIPAL CORPORATION OF DELHI</t>
+          <t>CRM-M-23388-2025</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59213082025CW121982025_204227.pdf</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59213082025CW121982025_204227.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW14Q1JGVlFZbEZvWTFWdlNVVkxRamxuUkRNNVNXOUxkMWxaWmk5dWNrSTRTMDFTVUdOSmFHaHBVVnBwUkhBekwxWjBXRk16TjNOTVMzTTFOekJxTjBrPQ==']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C.R.P.-234/20252025:DHC:6940</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ARUN KUMAR Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PREETI JAIN &amp; ORS.VsALKA SAXENA &amp; ANR.</t>
+          <t>CRM-M-24175-2025</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59013082025CR2342025_154420.pdf</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/59013082025CR2342025_154420.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxkd1NtczFURXRGVkhKSU4wWndVWFF5UW1KclRUaFVSMUZFVFRkSFlVZHNjalJsY1dwMmFIQllhSEk0VDAxVFYxVlNSV3BTZW1oRE9HRTVNVmh0TWpRPQ==']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BAIL APPLN.-3183/20202025:DHC:6944</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SUKHCHAIN SINGH ALIAS RIMPY Vs STATE OF HARYANA</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YOGESH SINGHVsSTATE OF NCT OF DELHI  &amp; ANR.</t>
+          <t>CRM-M-251-2025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75113082025BA31832020_134042.pdf</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75113082025BA31832020_134042.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpWVE1qUkthaTkyWVcwd1UyNVlkekkyTTNaT09VZHpUbkV5WTBwNlp6a3ZhWGx4SzBWNFlVaFdXR1ZuVjNKelNVVk5VMFJ3YTBkaVpqSjNXU3M1TjNJPQ==']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>W.P.(C)-12195/20252025:DHC:6904-DB</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NARENDER ALIAS KALA Vs STATE OF HARYANA</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AMIT KUMARVsUNION OF INDIA &amp; ANR.</t>
+          <t>CRM-M-25843-2025</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW121952025_170443.pdf</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW121952025_170443.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtsdFFrVTRaVWh1UkVaaE9UWjZVREU1UlhaR1QyUkJRa3RIUkZsSlJXWlpNVlJqUmpaNllrbFJlR2tyV1dkR2VTdGFPVEZxYzJsVFpVOU1kR2xHSzIwPQ==']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>W.P.(C)-12213/20252025:DHC:6886-DB</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ANLABHJEET SINGH @ LOVE Vs STATE OF PUNJAB</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SATPUDKE TARKESHWAR DASHRATHVsUNION OF INDIA AND ORS</t>
+          <t>CRM-M-26247-2025</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW122132025_170550.pdf</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/75213082025CW122132025_170550.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpWQlExTlJVbTFSV0c1dlkyRlphVmRvWmtGWVMzWmxTRXA2VUdkVWEwdFZaWEZYTm5CMlZYUm1hVUZ0V1M5T1EwUnlXREZ2U2psb1RFbE5RV2RUTWtNPQ==']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CRL.M.C.-6579/20182025:DHC:6824</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>45882</v>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RAFIQUE KHAN Vs STATE OF HARYANA</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ANAND TANWARVsPOONAM ANAND TANWAR</t>
+          <t>CRM-M-28680-2025</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/NBK13082025CRLMM65792018_170833.pdf</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://delhihighcourt.nic.in/app/showFileJudgment/NBK13082025CRLMM65792018_170833.txt</t>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5Wc1JscDZlak0zTjFSVmQxSjVSMjloV1VWV1kzcGFVVFpNYm5kQk9HOTVkVEZHYjA0clJVZHlhMUpaTm5OdWNXeE1iaTh5WVRVM1pGbDBSMVJqVm1NPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ANGREJ SINGH  Vs STATE OF PUNJAB</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CRM-M-28758-2025</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW01alJGRk5NbVJMYVZkNVRrWXllazlNWkVKbVRXVk1ORzkwVTAwMWNHeFhkQzlYVjNwQmFtSlhZbU5tZGtoM1dXRTBhMHMwUWpCb05tVkhiV3h2YURNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BHUMIKA KUMARI Vs STATE OF HARYANA AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CRM-M-28839-2025</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpOR055czNXREZ2YzA5c1dVaDRaRzVPYW1wS1NpdGxSbkJJY3k5NGEzWkdjSEJqY1hSR1pFUXpiSE54VFUxc2R5dEhPR2xxVkN0bloyTmpaa0p1VVdRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DINESH KUMAR ALIAS RINKU Vs STATE OF PUNJAB</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CRM-M-29612-2025</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpocmVrNUVUVXd5U0ZKNlFYRXlOVGRUV0dkQlpHUnhZbGswZVhWaU16azJaemszV2xwa1NWcDFhRmxCVkdKMU1XVkhkWFpKYkV3clNWRjVOMEZxWkZFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VICKY KUMAR ALIAS VICKY Vs STATE OF PUNJAB</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CRM-M-29620-2025</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpsMUwxTXhXVzVsVEZJcmEyUk5OV05rU0hkblRFaGtZbWw0ZW1wVE9YWlhRM05RYzNOV2ExWmpkVFZUUzBGWE1sUklhVE5LV1dwaGJqUmhVbXhUWTJFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>KULWINDER SINGH AND OTHERS Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CRM-M-30377-2025</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWt0RmEyUkNibmh1U3pKeWJUbEtPVzFVZGtOWlZVb3hRbFp5T0hvdk1HUlZlV05rZVdGNFZteEZia1ZMUlVWbVZXRnphbWMzVVdSTGMyVXZaa3RZVTB3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MANGAL SINGH Vs STATE OF PUNJAB</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CRM-M-30604-2025</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1veVIyOTNVUzl3UzBodk1rZDBUbVZMU1ZGeWRsTnZWMUJuV1V4bldEaDZiMWx0Y0RST1JEaDVlbnB4TkhSTFpEVmtRbTR2UjFOWFNub3dOVUpSYnpRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SONU AND OTHERS Vs STATE OF PUNJAB AND ANR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CRM-M-30800-2025</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpKSVlXTnlVbWQwTWxOVWVVOXNXWGRDTURkWVZWazJZbXR2U2tSMmMwTjVhVzVKYW5KTWQwcFhWUzlUTWxsMGJFOWFVekU0U1ZWMU9HeFlZM2RpVEhBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NISHANT ALIAS NISHU Vs STATE OF HARYANA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CRM-M-31579-2025</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1aallXMU5URzFRYVZCSGNXSlZUMGR5WkRGNFFrdERkV2RoZVdwNmNXOURSbWx6V0RsTmFqTjVlRWxNTTFCUlVVcHhlSGhFWmpoSlMyVmlSbkJoZDBrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NIRMAL SINGH Vs STATE OF HARYANA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CRM-M-31673-2025</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5OU2REWkdkM0pYTTI1SU1XZG1OVGRUTURoclRUbGpTVzQ1U2tGek1rcDBVR3hhVmtkMFIxSTFNVTB5TDNVNVpYcHhkR2xUVjNBdlMydG1PRlZ2VGxRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NARINDER KUMAR Vs SANGEETA BEDI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CRR-1206-2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhMXByYkhsWGNESjRXa3QzV1U5c09EQkhlV0YyVDFGMWFIUk9ZV1Z6V1VWeVdtRk1ZV3BNVkVWNlpYRlVPR2d6ZDFwSmVVRk5NMFZNWVhVMFExbDVkVGRKWjBsYWRXaGlabXB1VTBSbGNGWmlMMFJ6UkhNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TEJPAL YADAV Vs  STATE OF HARYANA AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CRR-572-2025</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhMXByYkhsWGNESjRXa3QzV1U5c09EQkhlV0YyVDNwU09HVTBlVTQ1T0c5V1NXbFJWRXBDYlZKck1YQlFaV0ZXVTBoQ05GVlpUVEY0VEZKMmVqbElhbmQzUVdndlRHeE5OVU5HVFM5TWFsUmpUbkl3YVdrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TEJPAL YADAV Vs STATE OF HARYANA AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CRR-685-2025</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhMXByYkhsWGNESjRXa3QzV1U5c09EQkhlV0YyVHpoRGRHYzVNSEZQWmk5NFdXTXlVVkUyYXk5ME9VaHdURzVMUWxsM2REQkRkRmRNTmxGcFNrODNVVEpJVmpoWU1VcG9aVEEyUVVWTVdVNTJjVXgzUmtjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CHAND SINGH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CWP-10091-2025</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGxCNVNXWkNUVmhtZWtsblp6bFNhMjVwVW5KNGJVcEpjbTlaVG1wMmJERk5lbkE0VGtWa1psbzNUa2x5Ym1SeVZYSTBUa2xRU1U1UE5uQlFaazVsWkc4PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CHHOTI DEVI AND OTHERS Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CWP-11555-2024</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtwc01Ha3liVzAwYUcxc1Z6azVVMHBtZDFKdkwyWTFablJsVDNOd01tdDFhQ3N5WmxKcmR6VnNWR05aWkRaSllreHhWM2hHVlhSTVRWSmxOR3RVYTNjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JAIPAL Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CWP-12937-2020</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtoM1pXc3ZUVEEwV0ZsUE1URnBNUzlCUTA1U2RVdHZObFZwV25kcWFGUklNbnA2Tm1oMGRqSkdWMnRhYVZGU1YycGlObkYzV0dKNFYwdHRWVFJEVUhZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SARITA Vs UNION TERRITORY, CHANDIGARH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CWP-14390-2019</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGt0TmVHVnhaV3BXVFhsWmVESnJTSFJSV0VaRFdVaEpVaXN2WVVGcVIycHVibFZHZVhkb1ZEaGhjVmd2WTBVMFRYZDJSelZRY0d4TGNHOVlhakF4VVZnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BALBIR SINGH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CWP-14866-2025</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5kQk1GTlJRakF6WjNOVmExWnpWeXQxYXpONFNVSjZlbmxGUm5wNGVFbEdUVlEzTWpJMlVrRllRM3BCVUhadEsyeEhSbGxvVEVsNVVuYzBVVUY0TlRRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PIYUSH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CWP-15247-2025</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG13M1ZIZFFZblpwV1VSRmJHNVlPVEZNWm01T2RVOXZVVGc0Y0hKSE1UaHVWa1poZVRWWFFra3hkVWMxTlU1WlMzQk1NMlZ1UXpCa2MxSXhVVGRoVUVzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ROHIT KUMAR Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CWP-15526-2025</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG1GSldFbG1iVGg1U21rNU5FdFJjMVk1Y2paVVNVNVZhUzlaTjJsTlFVUllWVmRuVWpFMWFXVlphRzVWUTBKd2VuSTBMM1IyVlZGRWJ6RnpOVWh5YVRBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SURINDER KUMAR AND ORS. Vs STATE OF PUNJAB AND ORS.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CWP-16741-2003</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGxwM1pVZG1ZVllyVEN0V1YwdEVWMGxGVG1jeEwweHhValE1WVhFM09UQnllRnBMZEZaV2JEY3hUVXN2UzJRMlZucE9ORU5ZZG5WTk5rdFhaMVp4YUhrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SUKHCHAIN SINGH  AND OTHERS Vs STATE OF PB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CWP-17597-2003</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG05Vkx6RlNVbmdyUWpWYUszaHRVbGhrTVRGbFdrMVBWVlJqYWxSNlptRkdlakF4Y2tWRVNrMTRWVXhzYUc1WVEzZEhlVmt5T1VkT1IwOHZZazFMYTIwPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BALKAR SINGH AND ORS. Vs STATE OF PUNJAB AND ORS.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CWP-17933-2003</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtaYVdrUlhWMWQzVkRGdFZIbzBRVkZhVURrMGNYTlNjRWd3VFZKdlpESndTRVpJVEhCSFZsWXJTbEUxWVRCQ016bFJWV1YyUVhaS2IwOU5jMnhYWnpFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HARMANPREET KAUR Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CWP-20032-2024</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG1GNWVEaEliWFJvTm5scFl5OHljbmRtWVd4cVEzTnhUVVY2U0VWclJYWTVWRlY0V0VjM1NGWTBZbUZ6U3l0U1lXNWhRbFZRWkhWNmNXaFlkMEZ4VjNRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BALJINDER SINGH Vs UTTAR HARYANA BILJI NIGAM LTD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CWP-20226-2025</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG1jNVNuYzRkakJMZERoc1dtMTZUWE5sUTJaQmJHUmhUVE55YlZWQlJUZGpZbFV4T1VGSlN6WmlRMjB3YXpWSldqaGxSVlZFV2xScmFHVk9OV1kwTVdRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SURJEET SINGH Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CWP-20313-2025</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG14SWFVVTFaamt2YzI1aGJVNVBUWGRsUXlzeWRFVnZlVVlyWmtGRlNYRjFWa3RtY1c5MWFWTkVVMU0wZG5WR1dVWXdTREZYYWxvckwxbEhNVkl2V0RrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JAIPAL Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CWP-20800-2020</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG0wMFEya3pOMnh4TkVOcmNVbzRUaThyT0hrd2FHZDZiV3AwUzJFeWFIZzBkWEJzUjFZeFVreEtVWEZLUkZvck1EWnZWMmN2VUc4MlNqaFhWWGMzWlV3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JAIPAL Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CWP-20805-2020</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG1sc2JXUmFSa1ppTUhoME9YUTJNVmxRTVhKTGFVSjRabU5HTUZZelMxSmlUMFpUV0ZSc1MzWmhaMmR6VUVvd09VOXhSemhSVFM5d1ZYWlJWMkp5UjFBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SHIV CHANDER GIRI Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CWP-22001-2025</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG1GTFNVMTNURmROWmxkdldUVnZRVGsxYUZaamFHVXZkbHBHUjI4dmIweEVha2cxYTFVemQyUmhjamc0Y0dsR1RWVXlhM2x6ZFdWTWVVeEVlVzUwWTBJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BAKSHISH SINGH Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CWP-22056-2025</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGprdldWcHFlalZMT1dRMFFuVTJiemhaSzJNeVZteGpSamROVUhaeVZWTjVURm9yTlhaMVVWRlFaemhJUlROQ1UxTXdjRTR4T0VjdlkwSldTa3BTY2tzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GANESH MEHTO Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CWP-22072-2025</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGpoNldHTkpVREZPTTNSS1ZqVkJOazUxS3paeVNWVkVXWGxMV2tRNE9HRmFlR1p2TVdSVlNqQkZNbTl2U1VkUUwwd3hkMVJqZG1wb1VpOWhlSE5DY1hFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ISHWAR SINGH Vs COMMISSIONER GURUGRAM DIVISION AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CWP-22293-2025</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG10blUzYzVZWEJ6YVRKNVFXdzRkamxaUmxJNFNqRmtSMUpxWkV0QlVUbDNVMVZyWkRGR1pIbEhTMU5NYUhWWlYycHJaRGxtSzJsTFpXSXpRVFpYUVVnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SOMNATH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CWP-22631-2025</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGl0UFNrZFhjbGRtZVVGblJFTkhNbnBJTUZsQlFqQlJVbkEzU0hKS2NWRlJkbk5IWVVvMlMwMW1USE5EWmpkS2N6ZzRSa0phZDJRcmVuRnZUMlo0VjJvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PALA RAM Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CWP-2290-2020</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGpsek1WUjFkRUo1V2s5T1dsQkZja0ZTVFU5alRXeHRNMmd2UTNOamVIcFRkVXRVVEVJNGNYZ3pWakZxVDJKRVIwSlhRV1ZXYzBONk5YUnZjVmR4YXpJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>JSD EDUCATIONAL SOCIETY Vs UNION OF INDIA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CWP-23124-2025</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtsak1VUkJWbmhGZWtGRWRuSmxLemc1YWxodWNWbDJXR1YwV2pKR1RubzVVMUJ6ZURGVGR5dG5ibmNyUzAxbU4zRjNaRTFvTDJaUFprdFpRVmxKVjA4PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SUNITA DEVI Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CWP-23392-2025</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGpWcVFWUktSVWhKVlZGVGRrTllPV05KZGtRMU5XZFdkR2hJZUZSMVdtUlpWbWtyZVRKaVJYZDBValE1ZWs4MlNqWm9lR1V5Ym14Q2R6aHJZbmh1VFZrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SANDEEP WATTS Vs PUNJAB WATER SUPPLY AND SEWERAGE BOARD AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CWP-23397-2025</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGs5NFprUldkMHN2YlU5WFpqTkhTelZWZFVGcFMycDJZVmsyTm5wTlRrbDFPRU5xVW05UlEwZzFUSFZMYkcweWQzSk5VbFZVUVZBNFZrb3lTWFo0UmxJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HARNEK SINGH Vs UNION OF INDIA  AND ANR</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CWP-23398-2025</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGxBeVFtMVZZMVJSTmtOV09WWXdSRzlQYVVsYWVqbHBkRzlHWkhWQlVsSk9jbFpETm5GRGRqTXZjM2hCV1hoR2EyUXdWblZXV1hjeGFqWmpWbkZHSzFNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PREET KARAN SINGH Vs INCOME TAX OFFICER AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CWP-23405-2025</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtScFdEZE1ja3h2ZGtoS1JsTnhhMGw1Y1hCeFdIRnljbWN3TlV0NVRHOUhXbkZKVmxCQ1VsZE1UbWRGUzBOTU4xQjBhMVZ4ZFRacGQweDBLM0YzVm1JPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>KULWANT SINGH Vs INCOME TAX OFFICER AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CWP-23406-2025</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5FMmNWZGtSekpCTVZaaEsyNU5UMU5PYkRkdFVXbHFWblpSUW1aSlEzRkNOV1YxY0VSNlJsZzBkSEp3VUhkT2IyTldaRXh3UzFJemVrdHRXVWRTWTJVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ASHOK KUMAR Vs INCOME TAX OFFICER AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CWP-23407-2025</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtsUlpVeGpMMHR2WlhJNVlub3lVVEYzVEhCYVIwMXhTbEZRUTI1c2RYTXhPRGxWVkdjMUwzaDVaVk5oWVhKbFJVZ3ZVWEpCVm14dFdtNXhNRTFCT1dNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MANISH KUMAR Vs STATE OF PUNJAB AND ORS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CWP-23414-2025</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG0xalN5dFhSbHBqZVZKSE1sWmhXWGRNVlU0d1YyNVRPSE0xWVdwTmVGcG5TazVMVlRWcFUyeHZNRGhJYVdWeE5qTmhNemxuVkdkaFV6UTBlRUZsS3pVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>NARENDER SHARMA  AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CWP-23434-2025</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtwTlowSlFSMXBWS3pBNU1WZDNaMnRxWTBabVRFbHFUalphWkRSWGRrOXNiVkprWTFKMGNIbzNTM0J0WWt3eVZrWXlTVmhOY21ZeVVrbDRRMFYxWkVNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>M/S ADITYA BIRLA HOUSING FINANCE LIMITED Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CWP-23435-2025</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGxSb1FUVlRTRkZHZDNwRWRXbzFNVEZOUlRacWVIZDBieko1ZUVOdlRsZHBiMDVVWTI1UWJuWlJRVnBKUWxsU1UwazRaa1JPUW5KR2NsaDZLMFZNTkVNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SHEETAL Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CWP-23437-2025</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtWSmExaFRhMWxUUzAxWlRtcFBkMjFKUjJ0T2EzWTNaa2M0TUU1TGQwNW9hVUp0Ym1KdVJrNXdWbFk1YkZwUlVtVmlWVmRKTVZwMlEwSlpXSEZyVVdjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>VIKRAMJIT SINGH AND OTHERS Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CWP-23438-2025</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5rMk5WcEphbWcxVkVWVFoydGxXak5CYVVRd0swZEpTVXQwWWtweVdYZDVUbk5VTkU5VVJGTlFTbkJ2YWxWeFRuSkxORmRqTTJOa2NUY3djV1pEYVdvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MUSHTAQ MASIH AND OTHERS Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CWP-23440-2025</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtScFYzbG1XREYxVG5sNGFETlpaMkZCU0dSNWJqUk9ZV295UjJKSWQxaDVPVWd4TVhGM1MxTmllV1ExTVdaVWJtNVFSa3BKYXpjM1VEY3hhRGdyWVZBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SATBIR AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CWP-23442-2025</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtsVE4xZDBWbEZLY0hob1NVZHdlbXR3ZVRKWFJtWTVhVUpvVFZNNWVYVm5UV2x2VEd3d1QxWndOVUp1VDNoa1VXZGFhRGxSTWpoaWJFVnBLMk5uT0ZNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SURINDER SINGH ALIAS SURINDER SINGH KHURANA Vs INCOME TAX OFFICER AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CWP-23448-2025</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtwUFFsZFpiM2hhWWtvNWMycHNUV3BZTUhsSlpGQTFORFEyV21GcU5VcDRVVmxaZVV4WlIyVmFiSFYzVURNMFQwNUNXVEpNU0RWWk9GcGhaRzFqT1ZvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SURJIT SINGH Vs UNION OF INDIA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CWP-23451-2025</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5SelYyeEpabmRzVjBsNmVWWTJWbmcyZDFCSVFrOVNObG8yUW1kb1RpOUtSRFYzTURKbGFFTnVkMU14YmtST1YxUnpZbkF2Wm1wdFpqZFRTRkphZGswPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>AASHISH KHANNA Vs INCOME TAX OFFICER AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CWP-23453-2025</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGxaeVFuZDFUMWd3V2taMGN5dERlRXN2UmxsTlVtSjNTMnBsZDNsSk5qbEliMkpGYkhsemVGTkJlVGhHVDAxa1JGbDRZbXhpZWpZdlpFdHpXbko0U1hjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>JAI PARKASH AND OTHERS Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CWP-23461-2025</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG0xaGNXRXJPRWRIYUVkNFMzSTVOVXQ0T1VoMmFtVmlRa1pQY1ZNMVdHNXBWbk5NUlVzeVpuWlBOMVpaYjJKSmJYcGtWbUp4ZFVFM09HcFFkemhvUkVFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>M/S ADITYA BIRLA HOUSING FINANCE LIMITED Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CWP-23464-2025</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG01Q2VFMHhLMHB3YlRSWmVtZGthbmhCZFRaR2RHcENVbHA1WW5GTFRWVkpjWFU0TWxCcFUySkVjblV4VDFRME1HUTNUSEZpU2pBM01FdDJVRlZOVkdRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MALA SINGH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CWP-23467-2025</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG04cmJUaDBWVGcwVVdGdWJsSkhhRTlLZVUxM09XcHlLemQzYzBaWk1FbFFibFJVUW5GMk5EaHFaVzU0YjBsQ1Ntd3lUelp1TDJRNUszQXhNWEZZT0VjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MANOJ MADAN Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CWP-23481-2025</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5CU2RuazRZa3BTSzFScVZWUXJSV1JFWW1KWmRFRlFVWG8yVlVGV2NFVkRia3hvTjBOaFVraDFkMWh4WW5WNldFWnNWVVZNSzJSUVRWSnpNU3RvYUVZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OM PARKASH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CWP-23482-2025</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGtoU1pVa3JOVzE0ZDJGS0syaFZkVlZWWW1Kd2IyRnZTVUZuUnpBMFJtWmhiVFpWYnk4d1kwMXZiekpxVGtKTFFqUjNZa3c0VG5KT1NUQjVNRzB4V0VZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SATPAL DASS Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CWP-23486-2025</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG10UE1rSnRWMUp1UWpKeU5uWm1kMjFHZEZCVVZVTXhTMGt3YTJWMGIxRTVSVnBrUzJwcU9FeDNZWEUyWjFWQ1VYRkVhRTVrVWpsWk5rSlFVRWczTldnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>HARPAL SINGH AND OTHERS Vs STATE OF HARYANA AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CWP-23494-2025</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGxwdVVYSnlTQ3RpVlZCV01sQTNkSFo2TVhrMFpIbE9jMFozUmxsV05FbG5lR2xQUXpsbU1GRnFSaXRYZEZVdmNEUjFka3RZUWxwbGFIRkpka3cxZFdvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SHARMANJI YARNS PRIVATE LIMITED Vs ASSISTANT COMMISSIONER OF INCOME TAX AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CWP-23500-2025</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGpOVGJtZ3JXRFZtVFhsdFVWaFdjMkZTY21KVlFqbFlaa2xxWjA5cWJXNVRXVnB2VTFGS1NXVTNjV3BMVVd0UlRsWlVkbXQwYjNsdU1rTTVUREZ2ZVRrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MANJU GARG Vs ADITYA BIRLA FINANCE LIMITED AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CWP-23503-2025</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5WbGRscFJkV056VFd4SWVYaE1kRmw2UlRRck1rTmxhMFJvTkhCdEwySktWMG8xTlVSSWQza3ZNR3RLYUdVNVVVNDNUVk5EYVVGeFkyTk5OWEpJYjFrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MINISTRY OF RAILWAYS AND ORS Vs ALL INDIA EQUALITY FORUM AND ORS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CWP-23505-2025</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5SMmVXTmxUVTVFVlhKSE9VVkZRbVExZFd0SlZWTklRa012V25jME5FTlNaRGd3Ykc5RlMwRXpUekZWTVZkSGFEZFJiWGMxTVdJNGNVeDRWSE53ZUZnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PARDEEP KUMAR Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CWP-23510-2025</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZG5RNGIwZEVNazExYlUxbVZHOUNjM1U0U0hCTUwwNWpUbXh2ZFVWQlFrMXZRV294ZEROeFRXTTBja3BxUnpjM2MxQTNiVXczU25oemJVZGhaMmwwYzBzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>HARIKE WINE Vs UNION OF INDIA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CWP-23511-2025</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliR0pJVkdWb1pYVTBTMHhYWlZWSk1taHFSVU41ZGk5NmFUUTBTbFZRZFRGVmFXRmpjMVphTjBkbWRHZFZNMVEzZW04eVEzQmhTakIzTkRCSE5pOUlTMDExTVRGRlNYVldkRTgzUmxGRWVIUktUSGc0Ukc0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>M/S TALWINDER SINGH AND COMPANY Vs THR EXECUTIVE ENGINEER, PUNJAB STATE SPORTS COUNSIL, AND ANOTHERS</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ARB-427-2025</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWFl3VURaV2EwOTFhREZXTmxnNVFqTTRiVkpXVWt0ck9YYzRkbmRsS3pSQ05FMTRNSE5ZYm1KRGMzQlZaR0Y0TTNVNVJrUnhUM0p6V1hWSFVrVTBhaXREU2s5SFRHcHJXa1pqTDNSdU9GcHBNRmx3WjFRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>M/S R K JAIN INFRA PROJECTS PVT LTD Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ARB-61-2025</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWFl3VURaV2EwOTFhREZXTmxnNVFqTTRiVkpXVWxoU1dtWjBWVVp2Y1RsUE0waDRhV0Z4UmxwWFUybDVaa3MwYTB0WVJEVXZkMVJRUWtkeU1VdElVR3d3WjB0UU4xVm1aemRCVEU5bFMyaHZkblZwWkVJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>M/S SOKHI INFRASTRUCTURE AND ANOTHER Vs TENON FACILITY MANAGEMENT INDIA PVT  LTD AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ARB-465-2025</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWFl3VURaV2EwOTFhREZXTmxnNVFqTTRiVkpXVW14dE5FRnVZV3RTWlZOMlYxTTRRWEJuWTNWUmQwcEVOMXBJS3pWMlJrRm1hRTlVVlZkNmNVcExPRWwwVXpneE0yeGthVGg0Y0hKNU4xWXdZa3B2T1RjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>POONAM Vs ANOOP</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TA-1013-2024</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1RKUVUwdEdhR3h1ZVVseGFYUlhRMHBKYWpOaGNqVkhjMVo1UWxCSFpFZEVXVUkyYWprMmIxSlJhSFZsTlM5UlNqSXhWbU5RZGtKcVptRk5lbEZyVUhNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ONKAR SINGH Vs CHARANJIT KAUR</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>TA-1303-2023</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1hsR1NERjBWVU15YnpnMlp5c3lNRnBHY1hCWVdWZ3JTRzVKTW5acFJrNDVOMWhYVjNSS00zTnZOMlV2UTNKRU5UaG9OVUVyZDNFM1puRnlXSEJMTXpFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ANNU Vs AMIT</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>TA-136-2025</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1VkdVlsWkpjWGx6V0ZjMU9EVkJRVE53ZW5KNU1pOVViMEZLYzA1dmRHcGpNbXBKVDFvNE5XSkdUelZYWTI4NEsxSkRZMmhVUVRsdGJ6STRXREV4VjJVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DALJEET KAURWIFE OF KULWINDER SINGH DAUGHTER OF SUKHMINDER SINGH Vs KULWINDER SINGH SON OF BHAJAN SINGH</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>TA-179-2025</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1haNFRHWldRbmQ0Tkd4dFNuSnBaMDVpYVVrcldtdFlOVTkwS3pJeWIyOUpNbFpKUzBkblowUmxURmxySzJwTk1HTndlbkpIWXpkNFYwSjZVWEZNUlRrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MINAKSHI Vs SUNNY</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>TA-25-2024</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1N0RWF6ZzVSSFU1ZG1Rd1JXdE1OVEV2WlRWRWJFcDZhVFk0TDJWR1FreEpaV3REUlU5QldEWXpXRWx1Ums5MVEwTkdNak0wV0doUk1VSmFNMWR0YTJJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RITU SINGH Vs ROHIT SINGH LATHER</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>TA-362-2025</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1ZwelJtZEpOMHhYTWk5Q1ZDdGhlRkJDTlhGWlRsbE5lSGxYUzI1dFFtbHZWV1JRUkcweFJtVXdlVVJ3Tm0xVlExUk1Za2RFTUVKM1JEaFpSWGRoTkRjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>JASPREET KAUR AND ORS Vs SUKHJINDER KAUR</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>TA-937-2024</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1dKS2FIRklRbk16YTNCc1YyNXhSVEJOVFM5alZWVTJTVkpRYkZKUFdXZERVbUphU2taVVVUWXlhM1Z0U214MVFtVlNNa0ZtU0hrcmNIUmFUSEpJYVVFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>RANJEET KAUR Vs SH GURMUKH SINGH</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>TA-471-2025</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1d4WmNHeDZhbGxsZVN0MVRuSjRSRWxXTW14VE5GQmFORGgyVHpKTVExcHdXblY0ZDBjdlRGUlNaemh6VVVsallqUjRjR05IV1ZOd1IyVTNaREoyWjJNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RITU SINGH Vs SH AJMER SINGH LATHER</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>TA-485-2025</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1RoMWJqQnBkR0ZrZWxKdFowRnBaR0ozWVVoRVUwRm1ZMDE2UzNOVFNIQlBPV0kyYlhaTFRsQnNOR0ZWVjBjd2RXOXhRazQ0YlRGQ2JHSlhaMVZVTlhjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EKTA Vs GOURAV GOEL</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>TA-627-2025</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1d4TFZHZENVa3RMVVRjM1NtOHdSREJ0UTNwVlZ6WnRTamhRTm5SVlVqWjJWblZvY1RjelZFRjNWbFk1V0hZNGRVVjFSU3QzWVZZMU9GUTFSSE5IU1RVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>NOBLEPREET KAUR Vs GURBAJ SINGH</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>TA-898-2025</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1ZoaVR6VnZkMWQwV0RoNVVURXlZMFIxTDFKcloyVkJObGd4V214RFZqQk1TVEZHWkRGRE9VWkxSMWxsU21KSFZuTlFhamMwZUc1Wk5XZFphVUpOT1VRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RADHA KUMARI Vs VIKAS KUMAR</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>TA-899-2025</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1V0aU1XTm1iRWROUVVNd05XRXlZMDAwV0M5NE16aG1TMFIzVUU1alpGZE5PVmd2UkdsSlUxZHZPR05HVUdabVQwbDZWa2xLT0d0dGVESkJUbGhEYW1FPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SUNITA Vs GUDDU</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>TA-413-2025</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhekV2VERneFVYTk1jazVFVlZVNWVrSXdWV3RyU1cwemFGTm5VM2xqVmpGSllUSk1OMVJsVURkQmFVTmxaa1ZCVFRkWUwwTnJibmhHYTI5NU9FdE5kRVl6Tm1RMWRWWmpTazFzVTNsNFdqUnlNMkpyTlVjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>HARIKIRAN SINGH SODHI Vs DEVINDER SINGH SODHI AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>RA-CR-112-2025</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRU5YZFVrMFRVRnpkR0UzZUdwMFVXUk5hSGRXYVhONmFWWXJWWFZ6VkVOWmVXa3pibmxyV0RVck1WUllTMU5vVUhaa00wRkNRM0p1YUVsbGRsSkNNbUk1V0V0eFNsWnZlRzVyVG05SWIzSkxWMEZ6YVhRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>INDIAN OVERSEAS BANK Vs THE PRESIDING OFFICER, CENTRAL GOVT INDUSTRIAL TRIBUNAL-CUM-LABOUR COURT-II, CHD AND ANR</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LPA-1361-2025</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliVkpvZWxkMVltSmpjR1ZxWVM5c1pWQlFZMUZKVTJoVlNVVkhXRkY2YWxKVFV6QndhVGw2TUM4MGR6ZDNWR1E1UkhsSWMxcHVZMm80VFVRelptMHpNa2RJYVRaT0wyZHNTekZaTmpJd2RtTXJNa1ZCY0RZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>RAMESH CHAND Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>LPA-904-2025</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliVkpvZWxkMVltSmpjR1ZxWVM5c1pWQlFZMUZKVXpRd1JsUkZhbk5YVlVoalZWQllSR3RJUTA5T1FtUlVlaXRoYjNKd2JFODVRUzlrYnk5RVVTdFBaRTFyVVdOdU5VaFliemRpT0dVeFdrcGlPRXRSV0dJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>STATE OF HARYANA AND OTHERS Vs RANBIR SINGH SIWACH</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>LPA-2373-2025</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliVkpvZWxkMVltSmpjR1ZxWVM5c1pWQlFZMUZKVTJNemVEbEJWbTlDUm1KVldqWk5jVTEyU1ZOVVRFNVpVV1ZNYW1abFNGbHhRMFJzWlVsa2RXeDJOR1FyZDFWcFlsQlBhRVozTjBkWE5rSXpRMHRPWm5ZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>M/S BHANDARI BROTHERS Vs PUNJAB STATE POWER CORPORATION LTD. AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>LPA-2360-2025</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliVkpvZWxkMVltSmpjR1ZxWVM5c1pWQlFZMUZKVTFObWVrTmlZM2xzVUhBclZrUmtlV2N6VWtoS1ZtbEhWRGx4TkdkdVZHcDJOWHBJVFRoSFJETlBWM2hzVDJSRlpXSmhjMk5LVTNvNVRtbFRNbXBEY0RFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>VIKRAM SINGH Vs YASHENDRA SINGH, IAS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>IOIN-1-CM-9649-CII-2024</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhMmc0T0ZKWWJEVTVValF3VmxCRmRUTnpPRzQxTlUxTFkwRTViMDVDY1VsS1pXdFBNRE5tTnpSeVZ6SkZWR1pqYlZSVlVIY3hOWFpOY1VaWVYzWnBjRTVSVm5aallXNDBXVmg2TUhKdEx6ZHNRVmR2TUdvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MANGE RAM Vs STATE O HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>IOIN-LPA-254-2020</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhMmc0T0ZKWWJEVTVValF3VmxCRmRUTnpPRzQxTldSQ1NFTlJTMUZ5VGtsbFoxVXhWMXB2Tm1Gek9EZHNZbFJKU1RRdllpOWxiREpqV1ZOWFVsb3JhWFUzTDNsdlpVOU9lR2RFYTFZNVoyeENNbEJGZVc0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>KULDEEP SINGH @ KRISHAN Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>IOIN-1-CRR-2077-2018</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhMmc0T0ZKWWJEVTVValF3VmxCRmRUTnpPRzQxTlhCcGFUUlJlV05RZWtaTGJGUlFVVzU0TUZoQk0ybzBZMEo1VFU1eVpuWTJXRUZtZGtNcmFrNTBUVzVGY1ZWSFQxaHJlR0YyWkU5NFEzVjFZbHBPYmxJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>VIR SINGH Vs BHAGWANTI DEVI AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>INCOMP-1038-2025</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdwVVNFTm5NWEUyYm10Q1IwOUtUbnBHV0RjdkwyVXdXa2Q2YW5wa1UzVjFlazFzVVZoWlZrSktTemwxY25CNVRHSkxhRXhZV2pSUVJDOVdjM0J1WldVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TARANJIT SINGH Vs STATE OF PUNJAB</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>INCOMP-916-2025</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVZObE5XdHRPSFZ1YWxKV1pEWkpkRVZVUVU5V1pHWTVVV3N4YzJWdk1VMXJhRmhMVnpOeVJYTmhTM2xvUkc0emJFUkJNRVJwT1M5T05qQjNLekpUUkhFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SUMAIL SINGH AND OTHERS Vs BALJIT SINGH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>INCOMP-1041-2025</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVUwNGFGQXdVMWROTkVjMllqVXZNVEY2VXpFd1VURjNNRVY1YzBsaVJFb3ZhelUxT1daRmRXTkpVQ3MyUVRCcFdsUjFkM1p1ZFd0YVZtbGpjbkZOVm5NPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SURINDER ARORA Vs KARAN SINGH</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>INCOMP-1043-2025</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVhBNFN6QldSbmQzVlZCRk1WbElXV2hYTkc5M01VcDRjVVp6TWt0RlVEUTFjbmh4UmtSVmFVUmhRVmhpZVN0cWQwMVhlVUZHVlVoU1NrUkNVa1k1TUZnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>HARMESH LAL AZAD Vs NASIB CHAND &amp; ORS.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>INCOMP-1044-2025</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVRSYUwwc3hVbXRVZDFGUFpUSjVPVWhsZEVKUlVXZHVhRVZVYzBSdk1XaFJPV3dyZUhwcVQyeDNZa0V2ZHpKRVpVOXhZVkUxSzBrd1RUbEtVbXRzVVRVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>RAMESH KUMAR Vs SHREE SANATAN DHARAM SABHA (R), BATHINDA</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>INCOMP-1045-2025</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdZd2VUZHhSakJSZDJWeEwxRnhNRlJtV1RFdmJGbFZXalZqT0RCUGFVTmxZMU5qV2taYVpIbHpUVEJaVFVnMFNFYzBWREYxYVdKUU1qVmFTSFoyVWpNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>JASWINDER SINGH Vs ANJU DEVI</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>INCOMP-1046-2025</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVZGU05WZFRWbmQ2YkdSSlQwcHFRbGhrYkdoTGFHdFpVM1pHTWtSTmExZHhUM2xNYWtaNVFXMWpWR1JRV1haSGNsbEtXVFZ3TURoSVJYbHBXVTl1WkZrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>AKBAR AND ANOTHER Vs ARJUN AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>INCOMP-1047-2025</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVc0dmFtSjFjeTg0TDI1R1REVlVlbnBYWlRVek0xVjNlbE5GTTBjMWN6ZElOWGRwYjJWMmJHRmhOa3hvVDJSMU1YaDBWSFpKYkZaUVREUnBZVk55TTA0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PARAMJIT SINGH Vs SATISH CHANDRA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>INCOMP-1048-2025</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdOV1RqQkljR3RoYUZkbFEya3JPVzU2V1RSSk5UY3hLMkZPWkhGMk1FTndObU5EU0RGalRWVkRielV5WjNac1dWVm9PVnB2Y1hsVllXRnRTamhaZW5rPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MURAT SINGH AND OTHERS Vs SHAM SINGH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>INCOMP-1051-2025</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVRaMVRqWnVjbVZYY1M4emR5OUdTRUpVVlVWQk0wc3hTR28xZFRaV1EyVkNUR3d6WXpkb1QweFhRM3B5YVZFeFRXNXNWMVE0Ykd4Q2RIaFROR2hwVFVvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>RANJEET  Vs ABDUL MAJEED AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>INCOMP-1054-2025</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdaamRsRTRiemxtUlc1cmFWRXhNalp2VlZWMGNYZExTemRxUmtRNGREaEpVbE4yTjBWSFV6SmtNa3hKY1M5MGVuWndNMWwyVm1kMVVqbEpVblZzTlRVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MOHINDER KUMAR @ MAHINDER KUMAR (NOW DECEASED ) THROUGH HIS LRS Vs KARAM SINGH AND ORS</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>INCOMP-1055-2025</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdkbmJtZDVXakYxZFRsYWFtdDVNMnBuVEhScllYa3plUzlvYWt3MEx6VTNlVFUxTWpGUU5FcHZaRlpwYTFWMldGaFVjbWhaVkZGNlRWRnRkVVl5UVRBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DARSHAN SINGH Vs VISHWAS DUA THROUGH SPA</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>INCOMP-1056-2025</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVRGMFMzVXZSMHRSTHl0b1JERmxTWE5TWWxwa1dWb3lRM0ZwZG1vMlptbE9kVTVHYzJOUk4wOUdWM0oyZVVKeVJsUldUMnBLWVc1M1ZqVjFOVWw1UzBVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>DAVINDER SINGH Vs VIJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>INCOMP-1058-2025</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVRSU1pFNTZlV0kxVTJWdlNXbGFNVWxXUVUwMVUweE5ZME5hT0c1VmQxaE1aMlpNYkhseFdDOUxka042VHl0bFVEUkpURU5aTlc0dlZscHBaa3RJY0ZvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>RAMAN KUMAR KHULLAR Vs SURINDER SINGH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>INCOMP-1061-2025</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVZOdk1YRnlaMGxOUzFCUldHdHFaWHB0VHpWMFkwSjJNbmQzTVUxTE5ta3JUMjFSWWxBcllteEZkbUpETkRGaWEzTmhiV2RWWlhGQldWUmhkR1phUlRVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>M/S FARID ENTERPRISES AND ANOTHER Vs PUNJAB NATIONAL BANK</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>INCOMP-1062-2025</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVhSUmRqTm1VVUZFYlVGSllXNUZZbmRpV1hKSmVYWXZlREJCZG1vNVRuWjFWRXBxUkdGd2EyMXhZV1pUVjNCeVZDOW1iSE5HYVc1RmFHMDJjalpyZGtzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>AMRITPAL SINGH AND OTHERS Vs ANINDITA MITRA IAS AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>INCOMP-1063-2025</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVRKdGNHOXNRbWRTT1c5SU5HWlFTVWxEZUdSdVlVZHhhMlpYTVhKQlpFaExRVWhuTlhOc2MxVkhUVnBVY1RocWQxZHhORTFrWW01blRWZDFVbVkyVDNJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>JASWINDER JEET SINGH Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>INCOMP-1065-2025</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVVSNlNqZEpUWEk1YVVabFdsRkNLMDltYTJwamRXVlNlVXgwWjI4dkwwOUlVMnRoTldWdVpYWklVVFpsYmtkdU1XNXFiSFZKTTFrcmJHSlZjVk5qYVRnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PRABHJOT SINGH Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>INCOMP-1066-2025</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVc5SGQydzJUbGRFU25aYVZXRjFiRzgwZW5Ka2J6WjZjblZyTm5KV2VETklaMmsxYWlzMldtODRXbVp0TjNkWFJuRnFLM05XTDBoaE1WcFpWME5uSzJrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>GULZARI LAL Vs RAM CHANDER AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>INCOMP-1068-2025</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdrMlQyaHpkRW92YjJsUGEya3llR3BQY0VsNFEwWnZNRTFVWmtSUFdrYzVXRU5UYW1jMlZVbERVRTlDT1haQ01VaGljMmhYTmtobVVUWldjV3A2TmtNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>BHIM SINGH AND OTHERS Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>INCOMP-1070-2025</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVd0blRtRmlOMHBJV2s1dk4zSXdZVkZyYTNsaWMwRnJZMjFGU1hkclIweDVWRWx3Y25KVU9HZGtiRkJDVEhSV1NtbFpTbTlVYTFselVIY3pUbXBXWnprPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>GURCHARAN SINGH AND ANOTHER Vs KULDEEP CHAHAL, COMMISSIONERATE OF POLICE, LUDHIANA</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>INCOMP-1071-2025</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVdoRE4wSkNSelEyYkVkT2VtZFpPWFYzWjIxVWJsTTNZazQyV21wNFFXeExhekozYkZaT1ZXZEhVM1F5YkZVMFJFNUZZa2NyY2paUGJXMW5URXd6TjJjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>VIRENDER SINGH Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>INCOMP-1073-2025</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVV4dFNWWXpSelIzT1ZWeU5FdzRiV0owWkhvd2RFNVpWRlJoYWs1elVHWjRTbGhHZUdkRlpuZDZXR2x2YWxsYVRGVlJhV1I0WjNkMVJYVnpZVGh3UjJ3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SURINDER KUMAR Vs STATE OF PUNJAB AND ORS</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>INCOMP-1076-2025</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVVKR1RrUlBiMlozT0VjeFNWbFZPVTlZTW5OcFF6TnlhRVp5VXpOaE4yRldOek0wWTJsbVNESnRWa0pyWjFaeWRHNVFRa2hFTTFCTVpXOVBOREpFWm5vPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>PARDEEP PAL SINGH Vs RAJINDER KAUR</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>INCOMP-1040-2025</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklibTQzY1N0aU9GTmhaRGhvZGs5bVEzbHhXRXRCYVVsclIwTnBVSFpYZGtoNFNGSllaM0JYZDI1Slp6UXpRa0pKTW1aRFMyaHJUa3RuZEhSRFdtNDRhRk5hUXpoUVpqUmpWbk5yWVV0dWFIZDZhM0kzZGtnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>RAKESH KUMAR Vs STATE OF PUNJAB AND ORS</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>CRWP-1686-2025</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtSUGVIaFpjbGhSV2l0UlNtcEtjMUIxV2tJeVMxQXJUa3RLZFZkWFREWnZjbEl5VFVwTk5qZFVjSFJGVUhNMU9FNDNaR1JvV0dOWGMyMUdTVGR5WjFrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SAROJ DEVI AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CRWP-8835-2025</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW5STmIwVktVV04yTVUxclJFMVZVbkJrYm1vdmJXUkJjVXBPWW5SdWF6QjJVMFp4YjJVclNtZDRkMmszWm5SNWJuSXZiMUY0Uml0a1RuSnNNbGt4YVRJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>POOJA (MINOR) Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>CRWP-4361-2025</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpWeWNrUkxVMHB6TTNkUU5UQlRkbmczWVRsSGRtWk5iMlV5YjNwelZsTkRabEJZUW10d05YVnFUa3hQYVVoRWMxUkRPSEI2VEc4eGVWb3dRbXBuYnpBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MOHINDER KAUR Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>CRWP-4676-2025</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW5WR1RuaHJTaXMwY0RGcmRUWm9SVzh3VnpOc05WSjZaM05EYjFCc04wTTVlbVJJTUhvNE9EQmlXRmhxZFhZNU5FUkVOMDh5U25WaVMxTnNPSE5EZDFFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SUSHIL RAJU THAPAR Vs STATE OF PUNJAB AND ORS</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>CRWP-5113-2024</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW5kaVlraHZlbnBGUWxVd1dreHpNbm81Vldkek4xcGpOeTlDT0ZwTGJVZDRTWFZzWWtKeVZUTXhNRmN6TUc5MFlUSmtPVlZYUkRGdE1FTXJhR001VW5FPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ASHWANI KUMAR Vs STATE OF HARYANA AND ORS</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>CRWP-7955-2025</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtGemVrczRTa0ZRYTBoRFNWQXpkMVZpWTNaQmNVazFiSFpNTjNsSGJFeDNhMmxoYzBGbGJtODJha0oyVlU5M1oxUkNTbWMzYTFKSVVuVkdaV2x1ZFhvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SARABJIT SINGH Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>CRWP-8030-2025</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW5kV04ybElSemh5WlRCaE1URjRaMnhHYWpCSWNWWnJTakI0ZUZkdlZWTnhkWFF2TkZSc1ZEUkhZVW94YlVKM01HMUZWU3R4VkZCQ0szbEJOWGhoV2pnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>HARSHITA AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>CRWP-8169-2025</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWs4NE9XaHdNazAzY0VoaFFVMVdWRXBrT1RSRGVqUnRTV1pwY1dSV1dIbEpZbUZIUWxCV2JVSlJPVnBvUVZkVFdIaFhSM2xsUTNkaWJXVmpOakJ2VDFFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ANITA RANI AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>CRWP-8398-2025</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW00NWRXOW1WRmhKV1RacWRWQkxhelYyTnpSTlNVTnlUbFIwTnpOdVlXOTFTM2w2YzBaQlVXNDBORmcyUlRoS0szSjFOMUYxVkVaaU5uY3dNVUpTUkdzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>JASPREET SINGH Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>CRWP-8539-2025</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpWS1FUbDRRMGgyVHpkcmFXTlhTMlpyUzFJMFNuVXdjVmxzWTA1MlNpOTRMelEzWkRBNGNXOXZVRU53WTFSR1VUWXdaRVppZG1GalQxZHFWMlJWYUUwPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>KULWINDER SINGH Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>CRWP-8607-2025</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxkS2FscHZkRWRTZGs1eVozUlFXRkF2Y3pneE5FOW9ZazlWT0VoSGFWRlBTM0o2V2xOWE9HTTJRbGRvU0VzNE0zSkdTSGRZU2t4SVZFWnBRbkpTWm5JPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>RAVINDER ALIAS NINNA Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>CRWP-8687-2025</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWl0dGNWVnhOMnhsY1hBMk1EaDVjR2RhTTJ4aE9GQnJjVTFCZEZOck5UTlJNMDlVZVNzcmFFTjNSRFJ6WkhOc2JXWTVjV1ZwUTJsaFZVd3JVRkJ1UjFZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MANVIR KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CRWP-8693-2025</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpkaVdqRnJiWEpYWVVGQmFGazBWVEl5YTFaM2JHUTBhVFZFTjNOYWIwVjFNbXhSVTFWalRXSlFibGRZTjBGdWJtOWpaVTlIVjJJMWRHeGFjRkJHTmxRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CHHINDERPAL KAUR ALIAS SHINDERPAL KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CRWP-8694-2025</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWs1aFVsTlhUbUo2VjBKbE5GQTRjVmRXY21VMVRXa3lUa2hqV2tGUk1qZHNkRkIxZGxaNVVtRXdZa1I0YUVNeGMzb3lhMjlSZW5CMGJXTnlTaXRKY1ZnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>KAPOOR SINGH Vs STATE OF PUNJAB AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CRWP-8696-2025</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW1SMlRVOTNhak13U0hwNlF6Y3lXVkExUzI0clUxb3lVWFpRV1dwcU1qbHFZME4wSzNNdmNETmlOR293VFhwNmJVSmlVV2h4ZEdwV05VUnVaRXBxWm1JPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>KUSAM AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>CRWP-8698-2025</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW1KbFpVdHhlRGhtSzJKcU16WTBOMVZVT0RWRU4yVnNkSFlyWVRCNFIyUnJTazVpYXpBM2VqaGFjMWhaUzAxYWRXNWFaMWR4Y25aa2NEQnpkMGNyTXpVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>KULWINDER KAUR Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>CRWP-8700-2025</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtGMGIycDJielpPUmtWTlltZ3ZaVUl2V0c5cWRVdExUVTVHY1dWR1R6SnNSa0o0YTFGemJ6ZGhOR3QwVFdGT1VUY3JjVzVhTUhCbU1uTkRXR3hEZG5rPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ASHA AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CRWP-8703-2025</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpVeE5VTkRUa1poUTFGRlNYUm5jekIwUjBWTmNtVTBZblF6ZFVsSUt6Z3hXSFpWV0RKSVkxaHJLMDh3SzBsQ1lWQk1lalZSVUV4U1EwWXhlalpoUm5BPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>VINESH KUMAR ALIAS VINESH GUJJAR GHATA Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>CRWP-8704-2025</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW5ScU5XNUxZeXR6UWs5a1Z6Z3hlRWRCUjFWM09EaFZaVlZoZDNNMmFDc3ZiekZTTWxOUWVVY3ZiV2cwY1ZSTU4wY3JSRU14YldwbVZqRlRVRlkxY0ZZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>KOMALPREET KAUR AND ANOTEHR Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>CRWP-8705-2025</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtVeE9XNXFkMDlLUWxWM1l6QjVjVk0yWWxkT1dURlVRblE1UkRkRlR6SnFRUzluUlRoek4yZG5ZbFJwU1RkdldYSmxNRmN5Vmxkd1kzSnhXRFpJY2pZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>VISHALDEEP SINGH AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CRWP-8709-2025</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpCM1prNVNTblU0VFVSQlNtNUhibmRzYlRGc01sQklaazVGTVdZeEsxbEtPSE55UldkWFdHWnFNV0UwYlVVd1ZFVkhNQ3RoYTBkalZtdzBhRVY0ZWlzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LUCKY KUMARI AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CRWP-8710-2025</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW1GR2NXTlBhalpFZFVKWU0zaGlSVGhRTldobWRTdHpUbTlrVjFWVEsxRjRPRzB5VVVsRE4wVkJRWEJGVlUxNU1XMVRja2h3Wlc1RFFuQndRbWhtZEZNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>AMANJOT SINGH AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>CRWP-8716-2025</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpOWVMxTnJZazlKTnpobWFHNU9Ua3haYjBWQ1dqazJPVWhSWWk4cmRVNWxWM2g1T0VaSFVFMW1la2xETVRKR1JWZDJjM1UwV2k5RlNqQm1aME5XZHpNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>AMAR SINGH AND OTHERS Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>CRWP-8719-2025</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxwb0wxWTBVRzAxUm1sNk1uSlJibkJSVTNGVVVWVTJZbFZxYmpNeE9HWXpWa2hpUWs4d05VbElTbE16YjBsNVJrODVWa3h3UVhONmRsSmpOWEJZUkVVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MANISHA SHARMA AND ANOTEHR Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>CRWP-8720-2025</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWs5RE1YRnNUalF5WVRBeFZWUnViVmRWWVVoTWN6Wk5abFpEVGpSaU1WWmlOMlExVHk5M1EwMUZRMDF4VnpOeE9FZHBOR2hpV0ZoMU5FOXROelptUmxvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>POOJA KUMARI AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CRWP-8722-2025</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxwc1lWQlpjMEZVVjFCclFYTmxWM2hhYTJWVk9YZE1UbVpEY0dWNVRqZzVlR1pXZFhaaVZVaExZVTlaT0RkeWNYTnRSa3hMVVVRdk1IWkNhRWhpZFVnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>JAVNEET AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>CRWP-8723-2025</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtwSWJYWXdaM1l6V25aVFdscHZkMlZxZFVScFJUaDNMM1kzVGpsTU9ISlhPRkpKU1RCd1R6SkdORzE0ZURST2FFWXZTa1l2UkhGclZGTmhXRkZWVkRNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SHARANJIT KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>CRWP-8724-2025</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW1RMWMxRkJObHAyUVVaVVRWWmFXbUZZZGs5M05tcEpPRmh4TkhoeU1rdEVkVGs0Y3poRE0yRkpWMFZyTW13eWFtbHpTVVJTVVhReFVFRnZPVFY0VFRrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>LAKHWINDER KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>CRWP-8726-2025</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW5weU1rVlJXa0pNYUhOc01tdzVZa3h6Tkc1RWJtWkZXRlJrUkRSR1FXeEZSSEJFYkdjNGFtdzRTMnNyVEdKQmNtOUdjVmRZVnpONldraEZSV3MxTUhnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>VARISA AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>CRWP-8729-2025</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW1kTWRtazVkRlpSZW5ZeVIxcHNUbkJTUkdSUFVHUnpUVmgyTDFaNFpqTTBja3QyTjBkRlQyZDVNbVpwYmtSNVFuQTBObTF1TkRabmEybFJUaTl5VW5RPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>VIVEK KUMAR AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>CRWP-8730-2025</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW0xR1VuSkRRa2hsZWpkUk9WSk9WR0ZxTXpsb2RWVlhTak15V0hodlQwVlVSa2RCVW0xcGREY3ZlVzg1WTJ4c1dXTTBTVW80Tm1wbU1XZGtRVEJWV2swPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>JASPREET KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>CRWP-8732-2025</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpGcmRrMVNUVGRWWVZJMWFHZ3hlVUpEVUV0cmEyVklVaXQzSzJzd09HOU5iRWRIZVVwelVTOUpZVmhrUkdKbk4yNTZiMUF3Y0ZJd1IxcDRjbWhHUTNJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SUNIDHI RANA AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>CRWP-8734-2025</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtOdFRFRkxSSFpJV0ZOVUswbzVWblJZYUhwSVRsVktPSGxqTVV4UVpESlpia1JSYzB3MVVURjRjV1ZTZWk4emNYbFdSbEJRY0M5NE1uWldVV1JRZG1RPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>PREM PARKASH AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CRWP-8748-2025</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtGWlJsQnVMM1JHS3pNNWVEQkZkV3Q1YlNzdmVsSXlURXMxVm5sVFYyVmtZWEUyY0V0S1luVmtWbGM0ZUdKck9VTnVhREJwZVZVcmFEbDZka0oyV2xZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MALKA RANI Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>CRWP-8752-2025</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW13dmRqaGhTa05UVEhOdGVFeHRaa3hET0VaNGMwUmhZVWxpUnpGbGRrMVljRlF5YUhCc1lrVnROWEZHYlVwTFZGY3dhSEJHUjJVNFRHZG1UVkV2YlZvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SATKAR SINGH AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>CRWP-8753-2025</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtSM1NUUnVka2s1UlRGbU5XNTFZVFYyZWxKTlZTdENhbUkzY0dFdlQycEJlRFJRTnpjeFVHMUZlakE0ZEZFMWIwTlhLM1ZOVUVKWFVHMDVSVGRLYzA0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>JYOTI AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>CRWP-8776-2025</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpCRkwwNVVNM0l4ZVhjNFZrVjZkVEJuT0RaMGRrZHlRMnNyWjBKdlNrOXJWbVpCYlVGVWJXWkJhekYxUmxOd1ZVNWFRa0oxZFVOdE56SkxXRGR0WmpZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>BALJINDER KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>CRWP-8780-2025</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpsemMyMXZPWGcwTjNObWNuSldiblE1YkcxU2VXMHJPR3BqZEZnclZWTldPVkV5V2taWWVIbDBZMmRvYTJGd01VZEZlbTVwUVdGaVZVWnlkMkZKVkRnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SUNEHA AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>CRWP-8782-2025</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtKT1pIUnVXRU13VEdWRGVUYzNWSFIxTm5scGNWWTFkRm9yYWtwUFdIcFlWbVZxTVRrNE1pOVNNakZzTVhBMVpYbGFkbEJyVjJsME4wVjRSMnQ2VW5BPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>KARAMJEET KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>CRWP-8794-2025</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWpCTVNFWk9WekZGYm5GaVoxUmpSMHBRU0RZeVZUQlBRVTlMVGxOaldqbG5iMmd2WVc5RmVucEViRzVIZFZaNVdXdHFlREZCYm01eFRVdFVVVGhYZEVrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SUHANI AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>CRWP-8797-2025</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TW10TGQyTXpUa042WjJaVWQyNTVZbGxsUzBWS1ZscG9hV1V2S3pKdE0xaEdVMXAyVFdkSVJIUkZlRFk1UzNsTVUwWnBabE5KVlV0cVdrMHhiaTgzY1VrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>NIKITA AND ANOTHER Vs UT OF CHANDIGARH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>CRWP-8799-2025</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxSdk5UQkRSWGRsVm1oS1RuSlRhMFZ2U0RkNUwzSTNTemx5VUdONEx6WjVSVzVyUW1VMFdtOVRieTgzYmpoUVF6bG1NVFJ3S3k5alZEVlVjbWxzZDBvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>HARDEEP KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>CRWP-8802-2025</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxSR2EzTlBMMjVEVVRkcVExbEpiVmhOWlhVeWMwOTRWSEpKV1c5WFpIUm5iRkZJWW5oTmQyOXNaa3hWWTBNeFJESXpka0l6TWtseU1WcExXa3hYWnlzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>INSAF Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>CRWP-8805-2025</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxoMGRYVlVWRkJCUVhJdlpFcHhVVUZDT0RSSmNrUklaMFJyUTJWTWFUQnBWVWQxYzNoR1NYUnFVblJCVVdRck5sSmhhMXBYZVRoVWFFaElOMDlGZUhZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>VAISHNAVI AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>CRWP-8807-2025</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxOeVlteG1RalpNTjJ0UWVrOTNhRkpuTjNKeE4xa3JZa3RFZDI5dmJtcEZTR3A2UVV4YU9GVjFkblp5Y0RWRldVTkpNVFZJY2poVGQzUmlXV1psVVV3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>BINISH AND ANOTHER Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>CRWP-8816-2025</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxsSFJFUlBNME1yUlVOMk9IbElXa2hxWTJGSGVYazRVRVpWU210NWQyaHBXRlpvTjJNd2VHVXdORU5PZWpKSmNuZ3djbGhMT1V3NFRGZENRVTFFUm5jPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>HARMEET SINGH AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>CRWP-8818-2025</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWxGMU0xVXlMelJEVW0wMk0yZzVkbk5MTmtoVlN6SXJUSEJrUzA5bWMySm5XVmh5VTBOTVYyVXhlbTl2UVZReFVXOUtZVUYxWTNKaVNHOU5VMmh4U2xBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>RUPINDER KAUR AND ANOTHER Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>CRWP-8820-2025</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERklhelpRU25wWWFIaHpiMkpFUTNoa2MzRk5VVWM1TWtWbEwzUlhOMUZuTUVvdlpUbEJjRGRXWXpsR1VWbHBPREExTm5oYWJVMW5TVFk1U2xKQ1ZYZFBkWGt3VERSUU4yNVhVM0JhVEU1VWFqZHpZakIwTkZJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>KARAMBIR Vs STATE OF HARYANA</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>CRM-W-1109-2025</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5vemRtSlRkRFJTV2pSWVoySjRiMmQzTUc5d0wwWm1RWFo0ZFRkcVNHaDFOMjVvUmpkcmFESmpVbkF5ZFV3d1NETlRZMU5MWjBsTmRtUXlNVEZ3TnpnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>DALVIR KAUR Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>CRM-W-1160-2025</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpkVWQyVk5ZblpQTjFOaFVHd3djMlp6UWtkRWJXaDBUMHR4YUhVNFYzTkxPVkZXYTBNek1qTlRWM1F3TWpaQmRuSlBOVTVDUzNwWWFXMTVZbGMxTkU0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>KAPOOR SINGH Vs STATE OF PUNJAB AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>CRM-W-1146-2025</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5GWU1XSmFhMlJyTVhkUlVUbDJaM2xNWkZSRmVISmlSa2R0ZURSS01VRnZkWEpJYms1UFUydDViM0ZvWlZaSWEzSnlPRGhWUWtGS1JYVndibFJrVTNvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>NEERAJ  Vs STATE OF HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>CRM-W-1111-2025</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxSeWNXMUNLMmwwVUZWRVNrcFpSM2Q2VDFCbVMyOXRlRFpKVW1wa055OTRSakpuTUhkamEwSllNRWhSWVd4VmJIb3dhMFJtUW5Fd1pTOVJOSE5OVlVFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>RAVINDER KUMAR Vs RAHUL KHANETA</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>CRM-A-1058-2023</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWs5bGJIWkZaeTgwVWxsRVpWTmFaRWwzVDI1RVFYWmthWEpSUVdWd1UzSlFNMlJwY1ZSSWMxTkZZa2hsWW1GVWVESXJjVk5uVjAwd1dVbE9ZamRoUWxBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SANDEEP KUMAR @ SANDEEP KUMAR BHATIA Vs M/S ABHISHEK PALIWAL AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>CRM-A-995-2025</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5Rck9WcGtNR0pDV2pGNGRpdDBhM28xTkVwUWNsaHZUMnBsUnpaUFpuRlNRelZsYzNReFRXTjRTR3haYkdkVFpHVnNhamQxZFhNM1VGQkZhMnBQWjB3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>GURCHARAN SINGH Vs SUKHJINDER SINGH</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>CRM-A-10860-MA-2018</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5nNWFXNUNhelZVV21sQ1dHUTFOa2xxU0ZOV2FqaG1TWHBvYjNKcE9TOTBVRVV6ZUdGa1VUbENOaXRCTUZGQ1YzSjBaR3MxVnpKV1EyaHBNblJYTVRNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>M/S SHADEZ INFRACON PVT. LTD. Vs M/S RAS AUTOMATION SOLUTIONS PVT. LTD. AND ORS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>CRM-A-1131-2024</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxGMWJWSk9LM1pYVFVwU00wZFFkVk5XY1V4VFZVRnJkMlJXYzFCdU1GSlBXa040UzJWU1JWWXJTbkZqTVc5c1JWZFBTMDFNY0dab2VXaDJTemxCZGxvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SIKANDER SINGH Vs BALBIR SINGH RAI</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>CRM-A-1308-MA-2018</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtKQlNsSkhUVWhvVUhCV1ozcHRiRUV4TWpWRWQwUkVORWxCTXpkSWRGUnhabWx6VlN0blNtTnVUbTEyVW1Ob1lscG1Oa1F5WkhjelFtbGtXRWxrV204PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SHRI RAM TRANSPORT FINANCE CO. LTD. Vs SURINDERPAL SINGH</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>CRM-A-1328-2023</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtWYWVWTkJiMlk1TkU1UGFYQTJZekZPV0RaalUxbHpNMEY0VEZCU00wY3ZRbEpHU0hBcldUQTBLMmN5VWtkaU1GQTNlbUZ6TVZrMFRYRTNaVXRoVjJvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>JATINDER SINGH Vs HARJINDER SINGH</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>CRM-A-1348-MA-2018</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtoNlVEWXdkMHBuZURRMEwxSm9VM2N6VkhSeGNYbDJkakZXTDNFd05FVkZkMWRhT1dSUE1WZGhZMjlRVkcxV2JFZEZibkZtV1RaR2NsTkJkM2xWTlVvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>HANS RAJ Vs CHAMBA RAM</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>CRM-A-1453-2024</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1GSlUzaFpTU3RFZEhwdmVucDVUVU0yVTFSVWNUUkZXVkJpUzFKclYydDBSR3hzYWtVMlZuQlVhVkZwWkdkV1UwRjJVVmxJWjFsd1NGRnVkbEJRWjA0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SUNIL KUMAR VERMA Vs YOGENDER KUMAR</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CRM-A-1486-2019</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtkUFpXUm5TbWhJU1cwdmFYZDFLelIxUkRGYWJtUnFRMUpuVVVSSGQyMDFPRU0xT1drd0wwd3JabU5XWkcxYVZqZFBlbmd4V0hWaWFtYzJaMkprSzNFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>SUNIL KUMAR VERMA Vs YOGENDER KUMAR</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>CRM-A-1487-2019</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtadE9XRTVZamxYTDBFMVowaE1ZamQ0UkZObVl6Rk1ibFF2V0doMWNUQXdUR05IZEhaSlRXMXljVUZpZDB0WmRsSmxPV1Z1TmsxaFpucEVRMkptT0dzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SUNIL KUMAR VERMA Vs YOGENDER KUMAR</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>CRM-A-1504-2019</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpkcmF6aFZaRWxGUkZJeEwyWlVTbkYxVFVNd2IyeENMemgwYm5abGVFeFdhREUzUW1WdmIxWjNSR3hsV0VvMlEwcHhiVlphV0dOb09UTnBiakZyU0VzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ARJUN KUMAR Vs RANJAN BHATIA</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CRM-A-1508-2023</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtwa1NXbHRRbXhwTUdwcGRXdE5jVUp0VlhCUVZYRXJSR0paY2xWNGJXNW5hMVpQTnk5d1ozUjFUV1ZUSzNkM1RrSXlia1YxZFVjelRGbEdjR0pKUTJ3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>HANS RAJ Vs CHAMBA RAM</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>CRM-A-1534-2024</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1wQ2RWUmlSV3BWWjA1NGNGRnFSVGhGTml0eE4yazFOemhVTTBOQ1prVXpXR1YzZEdkbmMzVmxNMDU0UVVaQlpXNXBZMXBOZFhwMFluaFhOR05oWXpnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>JAI BHAGWAN Vs AJIT</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>CRM-A-1579-2019</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5OVlVERTJibEkxV0VKMGVFcFdhazF0WlhaVFYySnBUbFo1WTFGaldpOXplVkZNVldJd1IxWllZbFJ3YXpoMWJ6Z3JWazlIZW10Mlp6ZHphVFZQTTJvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SANDEEP KUMAR Vs SURESH KUMAR ALIAS SHYAM SHARMA</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>CRM-A-1579-2024</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpoU1lXTjBaMUpyVUhCWVVWZEhabGxHT1U5alZYQjVVazVtZEZWNGIyUm9PVEZPTkV4MlJVVmxOUzlaYWxRNGVHVkdWRVZ4U2tOcU4wVmxiRFpPVFhJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>M/S SHRIRAM TRANSPORT FINANCE CO. LTD. Vs SOHAN SINGH</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>CRM-A-1588-2024</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtzNWF6VnlSRU50UTNoVGNHaGhOR0ZYWWpNMEwwMDBNRzFIWVZwVGFrZ3ZRbEp6YW1wTWEydFVabmx6WXpKQ1VuSnBOSFpwTW5aMWJrcHFXRlpJYmtjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>RAJESH GODARA Vs STATE OF HARYANA AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>CRM-A-1589-2024</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWs1a1MxQmpWRzlYU1hsWWR6WnBaa2gyUnpCV1ZsTmlWa3RsTjJKd1owSnhUMUZVVXpsTFJVczNjbnB4TnpGamNsbEphRlZHWTJWdk1FOVZWM0JNU2pjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>JATINDER KUMAR SHARMA Vs JASPAL SINGH</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>CRM-A-1590-MA-2018</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtNMVZYbGpaa0o1Y3k5bU5VaFhjbWxDTUVJclJUZFFVVU5sUjFoeksybGhWVGxsUkcxYVVHVkNaRUp3VlZoTE9FZDRaVVJtVFZRd1ozSXJiRGsyVDNjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>VIRENDER SINGH Vs RAJESH SINGADIA</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>CRM-A-1669-MA-2017</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1wRlkwWTJVVTlMVW14SU56WjFWR1ZpYTBOdGQwTnVZV2RoVWtKU01GQXdRMjlMZUhCQ01ERmFXV1ZZY1VWRVZqRXZXRFpMUjBsTlVqZE5TMWt5VFVnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SHAM PAL Vs SHAM LAL</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>CRM-A-19-MA-2018</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxGTk5YWkdUMWx2TmtOV1JIRmFPQzh4Y1cxbVNFVkdjVkJzTUdaNmQzSk5VREZRTTFvMGMwOVRaRWRuUWpFd2JsTmpSMFo1VmpKS0wweEJXSFE1ZUVNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>M/S PAL HIRE PURCHASE AND FINANCE CORP. Vs SUNIL KUMAR AND ORS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>CRM-A-191-2023</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpNeVNFNVFieXNyTVc1dmNVUTFjM0F2YlZwSlpXSXZZbVphWWtwVGVVNDFOblo1S3pOTFZIa3pOV3hrVEhZMVdGaEZRalYzUjBoM0t5dHRRbEp5YjI0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>GURJEET SINGH Vs BALVIR SINGH</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>CRM-A-1934-MA-2017</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpWaE9ERnVaMmgxVEZsRlZVMXROVmt4YjNCRFFWWk5OVGgwUTFSeVpETm1aV05uZW1oRWNXOXZWRWMyZFVsNk5sQlFVRzFVZEhOYWJ6UlVOa2x2ZVVvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>VIKRAM SOFAT Vs KRISHAN BUDHI RAJA</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CRM-A-2032-MA-2018</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWt0bWRrTTJjazgzTDNRME5GUk5aSEpWWmtsd1Jub3ZkbWxYWkd4Q0szWnVkV29yUWpkRE9FbFhXRTUyV2pCT09XWk5WbWt3T1V0YWNuZHNjRko2YTJZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>GAJRAJ  Vs SUNITA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>CRM-A-2087-MA-2018</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWlzeFNrSlZhR1pNTDNaSlpubGpRazlTUm5CTGVYWnZXVzV3TkUxbVNsaEJlVXRIWnpoUmJ6ZEVNbWRZSzI1dlFra3hTME42UlhGb2RHVlpibUpsUjFVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>KRISHAN LAL Vs GURMAIL SINGH</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>CRM-A-21-2022</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxkelFtNVhZV3BoZUd4ak5tODNaRk5TT1hVclNIcFpRMnRDYkhSRlFYTkdVVkZhZDNoQlYzUlFUbFpxYlhkS1RqTXhVMW93Y0djMWVsbG5kRXR2YkVNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>RAM KARAN Vs STATE OF HARYANA AND ANR</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>CRM-A-2238-MA-2018</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxSUmNWWndhMWRKZVRnNWJtaGlUelZDYW1oUFJIcExkMGhuTWxaTWVGaE5TbTlvUWtSM0wyZ3JRMGN2UkRSdWRUUkJUa3BWU0RGVGJsZDFVRTFzZW1VPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR Vs RAVINDER KUMAR</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>CRM-A-2249-MA-2018</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWt0U1ZGWjZjR3BaVmxselYzbHlhV0kyZUZkVWFVNVZSbFZUY0VzMlVVbDJNM0puWm1WR2NVWlBPVmxRU1ZGWVZUUXJaVkpOZFhGSVIyOXdWMll5Y0VVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>M/S ZIMIDRA SEEDS STORE Vs KASHMIR SINGH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>CRM-A-227-2023</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWprMFZtbFNiME14U0RCVldYWlZabU4xVTB4blVtRkxLek5IZHpKMVpEUXpiVGd2ZG0xQlZGVmxhM1pWYVdoa2QxUXlLMnBMWmtaYVpEZHpkbkpIY1dJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>RAJBEER SINGH Vs DARSHAN LAL CHAUHAN</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>CRM-A-230-MA-2018</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxKcGVFVTBjM2xsYlN0bWNHbEdRV1pKVVZVeFltSmhZa3hYVkRJeEx6aGFlVVZYU0hkTlQxWlJWMVk1ZERZeVpGSnVlRkp6TlZCSWVpODBlbTFPUkZJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SHIV KUMAR Vs M/S MELA RAM CYCLE WORKS AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>CRM-A-2423-2019</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpGRk5YcEJUMjA0VTNFdksyRjRTamh0ZGpsS2RteERVVVJ4Y1hvdlYwcHJWRXhWWml0SU5YSnRVRUpuT0hWRk0wdGpNMVF2VkZveFdrbG9VRkpRZVUwPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SHIV KUMAR Vs M/S MELA RAM CYCLE WORKS AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CRM-A-2446-2019</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5velNDOVZhRFZDVDNKSU5USXJlUzlNTlRSSVpVbEhUMmxhUjFGVmNsTlVOMGx2T0VSd1JURjJRaTkyYkRJelpWQnlPV2hqT0ZkWFdqSldSbmQzY2tJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SUBHASH CHAND Vs BIKKAR SINGH</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CRM-A-25-2020</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1zNVdsRlZVRUZoZFd0cU1WVlBkVXBrYkhkd2NXUldTakZOTlRRNVV6VjFlRzFWU2tOS1RXMVpXaXRYZWpkM2Vsa3hRMUpUUTFGNU5FODBhbWx3Wlc4PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>YOGESH KUMAR Vs GURBIR SINGH</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>CRM-A-2529-MA-2018</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpsWWEwNU1jMGwxZFVWbVkyVmFSbHBPYWt0Nk1ERmxjV05QYmtwRFMweG1Na3czSzBjdmEyRjJORUV5SzFNeFdDOXZiWGs0T0c1TmMyeEtUMGxvVlhZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>UDAI SINGH Vs VIKAS RANA</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>CRM-A-255-2023</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpGcmNYZG5USGRWTkRkalFsWXZhSGwyTmtSWmQxQk5jbmRVZFM5dVNTdE1SMVZSYm5ObWVtbExOSGxyYmtOb01saFNLekV4ZFNzemRqZEJjRXB6VW1FPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>USHA CHALIA Vs ISHWAR SINGH</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>CRM-A-2628-2019</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1WclRYSmpPRFp1U2pJd2N6TkJTME5XTkc5c1QxbGFSMjFuWW5Zd1NGSnFWV3hRWWtZcmVHcExTbXRzY25aVkt6RmpWR1pXVkZSekt6aFhkM1I1V1VRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>USHA CHALIA Vs ISHWAR SINGH</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>CRM-A-2629-2019</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWpZMWVuZFdSbkZ5VWtFNVkyaFZabmt2U0dSdlFXMVpNRUU0VW1OTGQxVmlNRXRqUldKMGFXdFZkbVl6TldSb1IxaHFSbFpESzBWWlMyMUJhSE15Wm5NPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SURINDER KUMAR Vs PARTAP SINGH</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>CRM-A-2891-2019</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1seE9ESXpZVVl2UVhKb01YVTJjeXQ2V2xOUU0xTTFlbUZ5U0U5a2NVVk9OaXRxYTBKUWQwRnRNalZDV0ZaelYycDFSMmRDZUU5QlExTXZjSFF4TnpNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>HAKAM SINGH Vs SHINDER PAL SINGH</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CRM-A-2903-2019</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1sMlYxbFphRzVyVTBWeWFtNUtNMlpGT1c5aFoxRkNjVVZGUTBKRlRFRkhkalp0Y0VjMmNEVk9hbmh4Y0V4d1NqazFMMk5OZEdWWkswOTFhblJxYzJJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>M/S NIRANKARI SEEDS CO.(P) LTD. THROUGH MD Vs JASPAL SINGH</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CRM-A-369-2022</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5oa2NXSmlhRkE0TURkRVVGbElZMGhZVldGQ2NEVktXbE5vV21oMlYyUnhORFV6UVdOeFFYSnRkME5KVlM5TGVHdElWVEp0WkZoUGRWSkxlbnB3VURNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SARA Vs VEERPAL KAUR</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>CRM-A-383-2023</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxWNksyaFJTMUIyTTB0S2JFUm9TMFJaYnpObVNWSXlLemRGVVd4R1FYVTRWa3BpY0V4blZXOUlTazFVYVVGMVdqVTBaelZZUTBSMFJubE5Na2d5Y1VZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>RAVINDER KAUSHIK Vs MUKESH KUMAR</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>CRM-A-393-2021</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxCeVdGTnVUMUIwT1hoNVdETnpkMFpRUVhOeU9XODVUV1owVG5Gd05XVktOM2hPVW1Rd1pGZHBkbmR2VVZwdWNTdEdRVzl0SzNsTVExYzJORmhIYWpZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SATYAVIR SINGH ARYA  Vs M/S RAJBIR SINGH AND COMPANY AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>CRM-A-416-2024</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWl0bU1FMXpRMWhRUzNOb01YQkNaek0yTUZSd2VVSTBkVzVPYW5KNVIwczFiVTQxWVRRM1VFaG1jR3RDS3k5Mk5tMW9aa3dyVW5GT1lrOTVUVFZvYUVNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>AMRIK SINGH Vs AMARJIT SINGH ETC</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CRM-A-512-MA-2018</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW1rMGJFRjNLekJWWVdSV01Vc3pPWHBJUVVwWEsxb3lSbVJuTkd3MFR6SnhUR0pyTkdKTFp6SlJhemRsU3pGMVZUQmhSVmt5YzJSSlkxVTJlVVZ6Um5rPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>RAJNISH JAIN Vs ANKISHA JAIN</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>CRM-A-517-2024</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUW5oYVJUWlZjSHBGYjFGeWNHRXdOR3hMVG5aM2NERnZUMFJxWW1Kdk1WaFBSemR5TkU1b2IwcHdVV3h4SzFwcFltRjNabVpRU1dwVVVYbE9Ra0pRTDB3PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>JITENDER SINGH Vs SATPAL SINGH</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>CRM-A-521-2019</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtsQ2FrZGhNVzlRV0VkcmJsWkRXR0poVXpGSFRWbDNlRVJSTTFZNVlrTmliVU5vVG1Jek1UTkNaRE5STDA0cmFtRkRSWE0xYlc0NWJFTXZWRmxqZVRZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>M/S ROYAL CHIT FUNDS PVT LTD Vs DEVENDRA TANEJA</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>CRM-A-552-2023</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWtzNVRsaFBTRlp2ZFdac2FGZEpRamx0Um5aTVRVdHRUM1JrVDB4amJrUjZMMjlqUjJ4SWRteHdlbGxTTXpnclJqbDJkVzl3UVZWMmRYRTBaWEJNYVhjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>SONY KRISHNA Vs BALWINDER KAUR</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>CRM-A-673-2020</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxwWFZFdG5aR0UwVlhkUWRYZ3ZTM0I2Y1ZGeGJDdG1XRU5ITjJ0RVpuTXpSSGhqYzNwSWRqVnJVbTFxWkVwWFVsWjBjMVV5ZG1zMlNGQndhamRVWVVrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR Vs RAJBIR VERMA</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>CRM-A-68-2023</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWs5TlVHNWtTMUZVZG1GbVNWQm5Ta28yTUVzNEwzZGlLeTlpVDJWbWNsTXZOMmsyUVM4M2JtUm5iR1pXUVhwTVFYZHRZek5rT0daVGVWTnJORlpqYWxBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>NARENDER Vs JAGAT SINGH</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CRM-A-710-2023</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWxsU09FOTNLMkZRVG10aFRVTllhWGRJVGpaUFFtVXdNMVZoYjNSamNqUjZlVlJaZHpCSFlXOWliRVZhV1dsTmVXTldVa0owS3paVU9DczBVM3BOU0VnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>NAJAR SINGH Vs STATE OF PUNJAB &amp; ANR.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>CRM-A-774-MA-2014</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWGxCT1ZsaFdIQldNemxpZUZnd1UydG1URmhWUWlzMVVYTk5TbUpJYmtwd2FrOUNOVWxoUWxnellYbFFjR1JpVURkWWRVbHdWVVZIVlhWdVpIcGhURU5SVkM5T09GcFZTVE5EUkhrd2RUQTJTMXBvVlU0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>INDIAN NATIONAL COOPERATIVE NA T AND C SOCIETY LTD Vs SHIV NARAIN</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>CRA-AS-220-2017</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjA5VWEycDFSVzVIWTBzM1dWbFFLemhwSzNKb2VIaHdNRWhRYjJveFkzTk9OSHBaY0hNclEwaElZakZ2UVU1b05IcEZlak16VWpoeGFGRjFOMWhDVG1NPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>ANIL KUMAR Vs DEV RAJ</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>CRA-AS-255-2022</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjBWSVNITkRPSE5IZFd0RVptWTVNSHBHTTNsNWNUUTBlVVpOVHpOM05HdHlNWGd3ZVZwdE9WRldjekF3U1doWU9XeDBaREJ6WXpKdVMyazJaVlpTWlUwPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>HARDEEP SINGH BENIPAL Vs RAM GOPAL</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>CRA-AS-365-2024</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTnpGcksydEpiR2haU1ZFNVdWbHZZblUwVW5obUwyWjJkemx5VTJ3NGIwdHZVWEpuV1hoV1lWaHZlR0Z1U1hOdU1qUlVOSFJzY2xkdVlpdFNNbFp0TjA4PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>EKTA KAKKAR Vs SUBASH CHAUDHARY</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>CRA-AS-385-2023</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjJseE1qZ3pUMk5NVWxSMFdrOVZWMDVKV2xoT09UTTNTWEF2YTFocFVtVk5abVJvTUhCdmN6bENPVTlRU0VKcGRrOHdWa3B2TTJ4d2VUZEZRbTE2ZFNzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>THE INDIAN NATIONAL CO-OPERATIVE N.A.T AND C SOCIETY LTD. Vs AJIT KUMAR SHARMA</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>CRA-AS-387-2023</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjBoMldrbFRObGxMUTNoVU1EWXdhME0wTUdjM00wdEtSRFZGYlhSWE5IbE5aakYzUnpaaFVYTkhNa3AyTXpOT1NteDRRMVpLYnk5cUswNW1Ta2x6VURZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>VIPAN SONI Vs SAURAV CHHABRA</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>CRA-AS-90-2023</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTnk5TloyY3dNVXhuWlRSMVNrdzViMjlPTW10ME0yVjNaRE5yUm5ONGRubEtVelYzYmxJNE1tbHNWV2xUVjNsTU9HVlJXbXRzWjJVNVRsTk1SRk5aUTNZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>THE INDIAN NATIONAL CO-OPERATIVE N.A. T AND C SOCIETY LTD. Vs BRAHM PAL SINGH</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>CRA-AS-390-2023</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTnpoQ1ppdGlOWE5wVEU4MlVFRjRZbVZXSzNSTmVHTk1iSGxTZEVOWFZFSlpVVE40ZFdOdlJrMTZiVkkyTW1KWWFHTTVPWFV6TkRsUlpHSkxVeXRpVVdVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SATNAM SINGH Vs KULJIT KAUR</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>CRA-AS-406-2024</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjNVd2NXSTNhMmxIZFcxcmF6ZG9NbkZITjFkSGVIRXJRVFZUYTFaSGVrcEVkM1Z5TmpOWmMxQldUMFJTTW5ZMk0wTndSVEpPVURZNU16RlpUMUp4YmpNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>BALWINDER Vs INDERJIT BRAR</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>CRA-AS-423-2023</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTnpWVFoySlpSVzR3U1dNNFJIVktSVWR5S3pSc1Ywb3hlREV6ZFhCdVNUWmxialI0Tm1OdGNUQnlPVE5PZW5rMU0zcDNia1ZGZUdwblRWRnFiVE1yTDBZPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SUSHIL KUMAR Vs HARSIMRAN KAUR</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>CRA-AS-424-2023</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjI4Mk0wSTVSMEl3YzNSWmFWWklkamhCZVd0MWIyYzVWaTlYTURGMGNWUmxVVXRRVGpjME4zUnlaSGRNYVRNM2IzWXJRbnBIZFhSb01XaHplbWRCWXpVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>GOODRICH CARBOHYDRATES LTD Vs FOOD STUFF TRADING PVT LTD</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CRA-AS-81-2023</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjJSVE4zQXZjMVo1U1ZSSFZYSXdOSFpKUkVoMVpGQlhXR3hEVjFKNGFDdHBhRVZFVW05bGIxRmhTVTFsUTFZNFNreDZUeTlrZFVKblFpdGlTMnhLY21VPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>SUKHWINDER KUMAR SAINI Vs ASHISH JAIN</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CRA-AS-388-2023</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliWEJSTUVOYVVYZFdaelYxVlZaVk5Xb3piRFowTjI1dWQzSmxjMnBDZGtod1dIWnVZVzlaV1V3dkt6RklaMDVTTVRCU1FVaE1iRFJMWVZKNWJqSm1TbFpFVEVjNVVGVnpkM0J5U1hOS2JVWmFjMmg2U0VVPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>SOHAN AND ORS Vs AJAY KUMAR AND ORS.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>COCP-1352-2021</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVERkaU4xZHFjSEZRYjFGelNVNU9kVE5HT1hCeFZXd3JNV2MyUjFWdlFuVjNVM1ZGVkdvMVQwWllkU3RvUlhsbWEzcFRhMDEyV2l0R2JVMVlOSE5HTjFJPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>JEET SINGH Vs ANSHAJ SINGH</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>COCP-768-2023</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEhoNVdUTlpOVXRIUWtWVlkzZE1LM04zTUdST1dtMUJZMDR2UkhGUlNEQlZja1E1WjJKc1YwZGtkWFJyTjJ4blkyaDRZVmhHZWpsWk4ySjZPVGR0UjNBPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>RAJESH KUMAR SHARMA AND OTHERS Vs SUDHIR RAJPAL IAS AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>COCP-1886-2025</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEZWTVJFSkhjWGt2WTBoRVEyWnBhaTlEU2k4eEx6Y3pObEJPVDJwVU1XVm5jRTVEWTBSemVVaFhZVkJ5Y1hZeU5sQlhSekJFT1hWTWVsTmxjSE5UWVU4PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>BEANT SINGH AND OTHERS Vs KULJIT PAUL SINGH</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>COCP-1921-2022</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEVoalZXWk5SMHByUldOa05tODRaVUZXZFdOR2NWRktUMGsxTlhOYVdEbEtVVzFvUkZsYU9XaFlTRE5MUlhwUlRrVllabkIwU1dOdVkxbFBjbUphZFdvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>VINOD AND OTHERS Vs VINEET GARG AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>COCP-2121-2024</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEZWdlJsZHdVREF4VUhCbmMzZHpNVVZWVlRaNVdIUktaekp5VG5VMWVHRmFTMnB1WlhGVFUxTnpOVGRCTlRORFVIVlpUbEl6YWs5d0wxUkVNMDQwSzNnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>HARMEET KAUR Vs PARNEET SHERGILL, IAS</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>COCP-2660-2021</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEhkak1sQklXa1pWVjFoWFJ6ZDVkMjVrSzFSUlVpc3diRmxpYTFoYVNVWmpZbmxEYTJsM1dHWTRTVTFHWlN0YWFtSXlTQzlLUlhOcE5WbEJUMWRFTkRjPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SUMAN VERMA AND ANR Vs SUDHIR RAJPAL AND ORS</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>COCP-2672-2024</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVERReVRuQkhRMHBuUTB4TWFFaDBSWEYyWkRsRU5uQkNiemhzY25jMGFVTlpWRXcxZUV0VE1sWnlNMUZ0SzA1UmNtdE9Za0ZMZFVZeFJrdE5VemxqUTFNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>KULDEEP SINGH Vs VINEET GARG, IAS AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>COCP-2996-2025</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEdoak5qbFVOMXAwV21sMWVIcGtPV1p5WVVSd2FVeFNTVGxpT1RocmJITnNSMDVXVUZNME16SnNOMFZXVDBSVE0xWXhUbUkxZWxCM1IxWlJTemx0U0VzPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>KASHMIR CHAND Vs ANURAG AGGARWAL AND ANR.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>COCP-3101-2016</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEVKTlNEWjJka0pVTkdoV05VZG5jMnRZV2paRlZIRkZhMWN5YzJnclMxcHViRFJDYzFaaEx6Vm5RWEZvUlVaNVEyUjNOSFpwWlV0c01uSmthbXhPTVVvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>PARVEEEN KUMAR Vs GURPREET SINGH KHAIRA</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>COCP-3133-2025</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEhKNU9VSjNWRFZFYzNOd00yVnJZVmROY0VSV2JVZFRkV1JUWlhWWmJYTkxXRE52Ums5MGQwbDFkWFJTVFV4b1ZIQkZRemxKVEhVek5teE1iM28xTDA0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>NIRANJAN LAL Vs MAHABIR PRASAD</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>COCP-3246-2023</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVERKV2RTOUlTMkpZUzNaSWRGZ3dkbGhDT1RkRFpXbGhVelF2YVRkQlptZEdkMHBGVUZwdFowaFhOM2huUkhvMFJsa3ZUVEpYU1c1TlNsWTVSamxxWkZNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>BHAN RAM ALIAS BHANA RAM AND OTHERS Vs DR SAKET KUMAR IAS AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>COCP-3266-2025</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEdkTFVYVjBkMjFNTmtFMFJrZ3pZMjl4ZG5CYUwxaExhMngyVldKcFRpczJNMnRzU0dkM2FHbDNSMU5STlc5TFMwZHRURVF6VlVSUllURnVSM1JYTnpFPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>KASTURI LAL AND ANOTHER Vs RAJESH KUMAR SINGH AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>COCP-3542-2025</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEhkTE1HUTRNRzFoTUhkVGVHTnpaVGxrUmtkNlkyTTBOblJwWVc1dlRXWTNWa0pHYTFZNVJEWTRhazFwTTBSdmJXSmhTM0ZPUjBOdVRuSktjMHd5TUZRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>SHIRI BHAGWAN Vs SUDHIR RAJPAL AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>COCP-3693-2025</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEhKdWRUa3JRMlZhVEVSMU4yUkJSV3hLY1d0RFNXWm9OekF5Tld4clpHdEJkbVV6UzBsUFVXWTRZMlF6TUZSdVl6RXlObkJUUmpsdE5GSlpUREJsVEZvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>HARDEEP KAUR Vs GAGANDEEP SINGH</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>COCP-3713-2025</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEVOTmRGZFphMjVzVm1ZM1JUbFlLMU55U3pScGIxb3dWRGt3VFZGNGRHeHhRaTl2WVRKMFNIbHhWWEZxV0RVM2VXOTZWV2xXUlhSalVrcENkelpXWm5FPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>DHARMO DEVI THROUGH HER LRS AND OTHERS Vs SH. ASHOK KUMAR GARG, IAS MANAGING DIRECTOR, DHBVN, HARYANA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>COCP-3997-2025</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEZaSk1sbG1TVWhZTWtZelUwUlZRMmRuUjBkVFFVMHdWM1J0Y1hOR1NtdDZjMU5XWjI1eVZrMXNkSGRSZGpVME5raDJSMWhvZFRKWFRGcFhPR0V5VVRrPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMARI Vs DEEPAK GOYAL AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>COCP-4016-2025</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEZOb0sxUkxWa2h1T0d4QmNFTnpNVXRaZDI1clJuUk1hbGt3VldaVFREWldZVFJWS3pGNmNGZFVlbWd5SzI1cVNDdEZRM1JtYlRGT0szWnVOaTltVTI0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>PARDEEP SINGH Vs VINEET GARG AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>COCP-4020-2025</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEd0SllVTjRTRXBOVEdzMGREUjJlRXQ2TkhSeldITkxjalJvYkcxWFZrdEZiazUxWkRSUFNqWnlSbTlQWlRWUVduQlZTblo1WTB4MWJrTmpWSE5xWkhNPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>NATHU RAM Vs HARMAN DEEP SINGH HANS</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>COCP-4021-2025</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEV3ellURmFSak0xTDAxWWQxUkVkekJYY21WRVMycFBPV0YxYzFadFprMVVTekF6YVRsT1duRjFWVGhDVjFWdWR6UnRaRzg0WlRKYWFITXJOWEJpWm5vPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>NAKHAR SINGH Vs AJOY SHARMA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>COCP-4028-2025</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEdWbk5HTllTbGxvTURoRVZGUkRUWFJtUlV4WWNVVTVXRmRLVkhwa1ZtZDJRamR3Y1ZkTVNrVnRUbmQyV2xsd1VHdGhOV012VjFKTVJWbDZVMmRaTVdnPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SEELA RANI Vs UMA SHANKAR GUPTA AND OTHERS</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>COCP-4029-2025</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEVSeGJrRm1lVVZVWjBSRWFETk9XVXhaYkdoWFZqbHlVWGx0Wm05SlQyeHRSemRFZDJwaWVVVkVZMGxITkZobGJEaHFUMnB0YVhodFozWXhaakpGZUdvPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>M/S PARTAP MILLS AND ANOTHER Vs PREM CHAND BAKSHI AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>COCP-4060-2025</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEVocmExVkdUMXBNV1RnNVVGZDNlVVJVWkRZM1ppOW1iRVpFVG0xb1pHNVZUWGxRYldKVldXaHlSREkwTnpSRlRqWnJkRmxKSzBsVk1FUTNhbEpWZURRPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>RANBIR SINGH Vs GURPREET SINGH KHAIRA, IAS, AND ANOTHER</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>COCP-4064-2025</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEN0SmNtNW5VWGRLUWpsaVJVZEZXbFJLVDFoVk15OU5WMVYxY0hocUwxY3hOazV2TWtvMVZ5OVhVbGhUYVdscGEyWXhVVkJSU1d4eVZGcDBVblp1V21RPQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>BALJEET SINGH Vs VIKAS GUPTA AND ANR.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>COCP-672-2017</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEUxVWJrcFdNemQxTVdaSGJqQXljVzVJY1ZCVGVqSk9URlJYY1hRMmQwUTNSR2gxVjJOT1ZrSnJUMUJsZUVrNFYyNUxSVkZUVHpkQlVtZFJhbEJVVkU0PQ==']</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>HEMANT VASISHT Vs MUKESH AHUJA, IAS AND ORS.</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>COCP-18-2022</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>['https://www.phhc.gov.in/download_file.php?method=ENCODED&amp;auth=TXpWU2QyRXZSVlJuV0hKRU5tcElOVzFZT1ROaWEyOWFTV04xTjNKd2Rtd3JlVWRuVG1waGVERkliRXAwYVVaUFJ5OVdSa1J2WkhCVlptUnpNa0ZYVEhSalkxQk5kRGx5U0haQmRGVXlNelJTV0dWb1QweHdiMVZGSzNkQlJXZHJUM2hSYzNBM2Qwa3ljWGRrYkU1a1JsWlhOVEkxTjNBMFJteDBOMU4yWjJRPQ==']</t>
         </is>
       </c>
     </row>
